--- a/Examples/paper_participation/ModalConfig.xlsx
+++ b/Examples/paper_participation/ModalConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_participation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7223F55-EEA6-4ED4-B158-5F8ED6E88F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21723439-72C8-4A64-A716-2F470F17E4E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1725" windowWidth="3600" windowHeight="1845" firstSheet="2" activeTab="2" xr2:uid="{2B771158-C5EF-47E5-B0CD-8BA481E90AC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="90" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="91" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="92" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="93" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="94" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="95" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144C4DF7-1622-4377-87B7-9EB574814ADF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47920C71-C372-4784-BB44-189A51A5BA74}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -2008,11 +2008,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07121F78-1832-496C-8B52-159C0FA3AC38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A05D98-23AB-403F-BEE1-544F15C1CDA2}">
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -2868,7 +2869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FE51DA-1680-41D9-846E-83FA54BC775B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911887DD-E139-4BCF-8A14-372DED1A7C06}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Examples/paper_participation/ModalConfig.xlsx
+++ b/Examples/paper_participation/ModalConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_participation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21723439-72C8-4A64-A716-2F470F17E4E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D88F3-F3D4-4A5C-A5E0-0B336524E974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1725" windowWidth="3600" windowHeight="1845" firstSheet="2" activeTab="2" xr2:uid="{2B771158-C5EF-47E5-B0CD-8BA481E90AC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="93" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="94" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="95" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="99" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="100" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="101" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47920C71-C372-4784-BB44-189A51A5BA74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F632A753-830A-4489-BD26-15E3CB1C2319}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -2013,7 +2013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A05D98-23AB-403F-BEE1-544F15C1CDA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605DCB94-7FD8-4A8A-A073-F193F832A2D5}">
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -2869,7 +2869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911887DD-E139-4BCF-8A14-372DED1A7C06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBA7CE9-E6E7-4E9F-981A-206E3B7D5CA9}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Examples/paper_participation/ModalConfig.xlsx
+++ b/Examples/paper_participation/ModalConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_participation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D88F3-F3D4-4A5C-A5E0-0B336524E974}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AEF3D2-F25A-4B0E-ABD2-FAA03F282679}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1725" windowWidth="3600" windowHeight="1845" firstSheet="2" activeTab="2" xr2:uid="{2B771158-C5EF-47E5-B0CD-8BA481E90AC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="99" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="100" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="101" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="102" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="103" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="104" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="149">
   <si>
     <t>Select states for state participation analysis. Only 1 mode should be selected.</t>
   </si>
@@ -92,7 +92,7 @@
     <t>Mode5</t>
   </si>
   <si>
-    <t>-3745991.33+50.00i</t>
+    <t>-158.53+1457.02i</t>
   </si>
   <si>
     <t>Device2</t>
@@ -101,31 +101,31 @@
     <t>Mode6</t>
   </si>
   <si>
-    <t>-3745991.33-50.00i</t>
+    <t>-158.53-1457.02i</t>
   </si>
   <si>
     <t>Mode7</t>
   </si>
   <si>
-    <t>-2995548.71+50.00i</t>
+    <t>-158.53+1357.02i</t>
   </si>
   <si>
     <t>Mode8</t>
   </si>
   <si>
-    <t>-2995548.71-50.00i</t>
+    <t>-158.53-1357.02i</t>
   </si>
   <si>
     <t>Mode9</t>
   </si>
   <si>
-    <t>-2994991.60+50.00i</t>
+    <t>-161.91+1192.30i</t>
   </si>
   <si>
     <t>Mode10</t>
   </si>
   <si>
-    <t>-2994991.60-50.00i</t>
+    <t>-161.91-1192.30i</t>
   </si>
   <si>
     <t>Device3</t>
@@ -134,31 +134,28 @@
     <t>Mode11</t>
   </si>
   <si>
-    <t>-205226.64+50.00i</t>
+    <t>-161.91+1092.30i</t>
   </si>
   <si>
     <t>Mode12</t>
   </si>
   <si>
-    <t>-205226.64-50.00i</t>
+    <t>-161.91-1092.30i</t>
   </si>
   <si>
     <t>Mode13</t>
   </si>
   <si>
-    <t>-45264.64+49.99i</t>
-  </si>
-  <si>
     <t>Mode14</t>
   </si>
   <si>
-    <t>-45264.64-49.99i</t>
+    <t>-25.78+100.29i</t>
   </si>
   <si>
     <t>Mode15</t>
   </si>
   <si>
-    <t>-3821.95+50.00i</t>
+    <t>-25.78-100.29i</t>
   </si>
   <si>
     <t>Device4</t>
@@ -167,19 +164,19 @@
     <t>Mode16</t>
   </si>
   <si>
-    <t>-3821.95-50.00i</t>
+    <t>-12.00+50.02i</t>
   </si>
   <si>
     <t>Mode17</t>
   </si>
   <si>
-    <t>-4662.79+50.00i</t>
+    <t>-12.00-50.02i</t>
   </si>
   <si>
     <t>Mode18</t>
   </si>
   <si>
-    <t>-4662.79-50.00i</t>
+    <t>-3.14+54.10i</t>
   </si>
   <si>
     <t>i_d_i</t>
@@ -188,7 +185,7 @@
     <t>Mode19</t>
   </si>
   <si>
-    <t>-5029.52+50.00i</t>
+    <t>-3.14-54.10i</t>
   </si>
   <si>
     <t>i_q_i</t>
@@ -197,25 +194,25 @@
     <t>Mode20</t>
   </si>
   <si>
-    <t>-5029.52-50.00i</t>
-  </si>
-  <si>
     <t>w_pll_i</t>
   </si>
   <si>
     <t>Mode21</t>
   </si>
   <si>
+    <t>-0.08+8.15i</t>
+  </si>
+  <si>
     <t>Mode22</t>
   </si>
   <si>
-    <t>-26.06+99.72i</t>
+    <t>-0.08-8.15i</t>
   </si>
   <si>
     <t>Mode23</t>
   </si>
   <si>
-    <t>-26.06-99.72i</t>
+    <t>0.03+4.48i</t>
   </si>
   <si>
     <t>v_dc</t>
@@ -224,7 +221,7 @@
     <t>Mode24</t>
   </si>
   <si>
-    <t>-3.99+53.56i</t>
+    <t>0.03-4.48i</t>
   </si>
   <si>
     <t>v_dc_i</t>
@@ -233,7 +230,7 @@
     <t>Mode25</t>
   </si>
   <si>
-    <t>-3.99-53.56i</t>
+    <t>-6.99+4.77i</t>
   </si>
   <si>
     <t>Line</t>
@@ -245,7 +242,7 @@
     <t>Mode26</t>
   </si>
   <si>
-    <t>-5.55+50.00i</t>
+    <t>-6.99-4.77i</t>
   </si>
   <si>
     <t>x_br11_2</t>
@@ -254,16 +251,13 @@
     <t>Mode27</t>
   </si>
   <si>
-    <t>-5.55-50.00i</t>
-  </si>
-  <si>
     <t>x_br12_1</t>
   </si>
   <si>
     <t>Mode28</t>
   </si>
   <si>
-    <t>-5.64+50.04i</t>
+    <t>-2.61+50.00i</t>
   </si>
   <si>
     <t>x_br12_2</t>
@@ -272,40 +266,40 @@
     <t>Mode29</t>
   </si>
   <si>
-    <t>-5.64-50.04i</t>
+    <t>-2.61-50.00i</t>
+  </si>
+  <si>
+    <t>Mode30</t>
+  </si>
+  <si>
+    <t>-5.65+50.04i</t>
+  </si>
+  <si>
+    <t>Mode31</t>
+  </si>
+  <si>
+    <t>-5.65-50.04i</t>
   </si>
   <si>
     <t>x_br13_1</t>
   </si>
   <si>
-    <t>Mode30</t>
+    <t>Mode32</t>
   </si>
   <si>
     <t>x_br13_2</t>
   </si>
   <si>
-    <t>Mode31</t>
-  </si>
-  <si>
-    <t>-0.16+8.14i</t>
-  </si>
-  <si>
-    <t>Mode32</t>
-  </si>
-  <si>
-    <t>-0.16-8.14i</t>
-  </si>
-  <si>
     <t>Mode33</t>
   </si>
   <si>
-    <t>-7.02+4.77i</t>
+    <t>-1.67+50.00i</t>
   </si>
   <si>
     <t>Mode34</t>
   </si>
   <si>
-    <t>-7.02-4.77i</t>
+    <t>-1.67-50.00i</t>
   </si>
   <si>
     <t>Mode35</t>
@@ -314,72 +308,72 @@
     <t>Mode36</t>
   </si>
   <si>
-    <t>-0.01+3.06i</t>
-  </si>
-  <si>
     <t>Mode37</t>
   </si>
   <si>
-    <t>-0.01-3.06i</t>
+    <t>-5.00+50.00i</t>
   </si>
   <si>
     <t>Mode38</t>
   </si>
   <si>
+    <t>-5.00-50.00i</t>
+  </si>
+  <si>
     <t>Mode39</t>
   </si>
   <si>
+    <t>Mode40</t>
+  </si>
+  <si>
+    <t>Mode41</t>
+  </si>
+  <si>
+    <t>Mode42</t>
+  </si>
+  <si>
+    <t>Mode43</t>
+  </si>
+  <si>
+    <t>0.00+0.00i</t>
+  </si>
+  <si>
+    <t>Mode44</t>
+  </si>
+  <si>
+    <t>0.00-0.00i</t>
+  </si>
+  <si>
+    <t>Mode45</t>
+  </si>
+  <si>
+    <t>Mode46</t>
+  </si>
+  <si>
+    <t>Mode47</t>
+  </si>
+  <si>
     <t>x_br22_1</t>
   </si>
   <si>
-    <t>Mode40</t>
-  </si>
-  <si>
-    <t>-1.67+50.00i</t>
+    <t>Mode48</t>
   </si>
   <si>
     <t>x_br22_2</t>
   </si>
   <si>
-    <t>Mode41</t>
-  </si>
-  <si>
-    <t>-1.67-50.00i</t>
+    <t>Mode49</t>
   </si>
   <si>
     <t>x_br23_1</t>
   </si>
   <si>
-    <t>Mode42</t>
+    <t>Mode50</t>
   </si>
   <si>
     <t>x_br23_2</t>
   </si>
   <si>
-    <t>Mode43</t>
-  </si>
-  <si>
-    <t>Mode44</t>
-  </si>
-  <si>
-    <t>Mode45</t>
-  </si>
-  <si>
-    <t>Mode46</t>
-  </si>
-  <si>
-    <t>Mode47</t>
-  </si>
-  <si>
-    <t>Mode48</t>
-  </si>
-  <si>
-    <t>Mode49</t>
-  </si>
-  <si>
-    <t>Mode50</t>
-  </si>
-  <si>
     <t>Mode51</t>
   </si>
   <si>
@@ -389,58 +383,58 @@
     <t>Mode53</t>
   </si>
   <si>
-    <t>x_br33_1</t>
-  </si>
-  <si>
     <t>Mode54</t>
   </si>
   <si>
-    <t>x_br33_2</t>
-  </si>
-  <si>
     <t>Mode55</t>
   </si>
   <si>
+    <t>Mode56</t>
+  </si>
+  <si>
+    <t>Mode57</t>
+  </si>
+  <si>
+    <t>Mode58</t>
+  </si>
+  <si>
+    <t>Mode59</t>
+  </si>
+  <si>
+    <t>Mode60</t>
+  </si>
+  <si>
+    <t>Mode61</t>
+  </si>
+  <si>
     <t>x_br34_1</t>
   </si>
   <si>
-    <t>Mode56</t>
+    <t>Mode62</t>
   </si>
   <si>
     <t>x_br34_2</t>
   </si>
   <si>
-    <t>Mode57</t>
-  </si>
-  <si>
-    <t>Mode58</t>
-  </si>
-  <si>
-    <t>Mode59</t>
-  </si>
-  <si>
-    <t>Mode60</t>
-  </si>
-  <si>
-    <t>Mode61</t>
-  </si>
-  <si>
-    <t>Mode62</t>
-  </si>
-  <si>
     <t>Mode63</t>
   </si>
   <si>
-    <t>x_br44_1</t>
-  </si>
-  <si>
     <t>Mode64</t>
   </si>
   <si>
-    <t>x_br44_2</t>
-  </si>
-  <si>
     <t>Mode65</t>
+  </si>
+  <si>
+    <t>Mode66</t>
+  </si>
+  <si>
+    <t>Mode67</t>
+  </si>
+  <si>
+    <t>Mode68</t>
+  </si>
+  <si>
+    <t>Mode69</t>
   </si>
   <si>
     <t>Select devices and mode for bode-plot and Modal Layer1&amp;2 analysis</t>
@@ -846,11 +840,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F632A753-830A-4489-BD26-15E3CB1C2319}">
-  <dimension ref="A1:G71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C839C35-93E7-4D8B-A690-0DA5439A3CD1}">
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G71"/>
+      <selection activeCell="A6" sqref="A6:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1108,8 +1102,8 @@
       <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F19" t="s">
-        <v>36</v>
+      <c r="F19">
+        <v>-201.06</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1123,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1140,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1151,7 +1145,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1160,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
         <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1177,10 +1171,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
         <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1194,10 +1188,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
         <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1205,16 +1199,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1222,16 +1216,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>51</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" t="s">
-        <v>53</v>
+      <c r="F26">
+        <v>-17.899999999999999</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1239,19 +1233,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>54</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27">
-        <v>-201.06</v>
-      </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1262,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
         <v>56</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1279,27 +1273,27 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>58</v>
       </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>60</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>62</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1307,16 +1301,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>63</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>64</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1324,19 +1318,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>67</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>68</v>
-      </c>
-      <c r="F32" t="s">
-        <v>69</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1344,16 +1338,16 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
         <v>70</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>72</v>
+      <c r="F33">
+        <v>-6.52</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1361,16 +1355,16 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
         <v>73</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" t="s">
-        <v>75</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1378,16 +1372,16 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s">
         <v>76</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" t="s">
-        <v>78</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1395,16 +1389,16 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36">
-        <v>-17.989999999999998</v>
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>78</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1412,33 +1406,33 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <v>-0.05</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1446,16 +1440,16 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1463,16 +1457,16 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1480,16 +1474,16 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41">
-        <v>-6.51</v>
+        <v>88</v>
+      </c>
+      <c r="F41" t="s">
+        <v>85</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1497,33 +1491,33 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1531,16 +1525,16 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1548,16 +1542,16 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45">
-        <v>-0.06</v>
+        <v>94</v>
+      </c>
+      <c r="F45" t="s">
+        <v>91</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1565,16 +1559,16 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1582,16 +1576,16 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1599,16 +1593,16 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1616,16 +1610,16 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1633,16 +1627,16 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1650,16 +1644,16 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" t="s">
         <v>102</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -1667,13 +1661,13 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F52" t="s">
         <v>99</v>
@@ -1684,16 +1678,16 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -1701,16 +1695,16 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -1718,16 +1712,16 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1735,16 +1729,16 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1752,16 +1746,16 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -1769,16 +1763,16 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1786,16 +1780,16 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1803,16 +1797,16 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -1820,16 +1814,16 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1837,16 +1831,16 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -1854,16 +1848,16 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -1871,16 +1865,16 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -1888,16 +1882,16 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -1905,16 +1899,16 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
         <v>121</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>127</v>
-      </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -1922,16 +1916,16 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F67" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -1939,16 +1933,16 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -1956,16 +1950,16 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -1973,16 +1967,16 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -1990,41 +1984,108 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" t="s">
+        <v>85</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F73" t="s">
+        <v>87</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" t="s">
+        <v>87</v>
+      </c>
+      <c r="G75">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605DCB94-7FD8-4A8A-A073-F193F832A2D5}">
-  <dimension ref="A1:L72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3336C7B-281E-4667-98C0-1CAF32DAB9B6}">
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:L72"/>
+      <selection activeCell="A6" sqref="A6:L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -2034,16 +2095,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" t="s">
+      <c r="K6" t="s">
         <v>137</v>
-      </c>
-      <c r="G6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -2054,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -2083,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2112,7 +2173,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2141,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2164,13 +2225,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2185,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2283,8 +2344,8 @@
       <c r="G20" t="s">
         <v>35</v>
       </c>
-      <c r="H20" t="s">
-        <v>36</v>
+      <c r="H20">
+        <v>-201.06</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2292,10 +2353,10 @@
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
         <v>37</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2303,10 +2364,10 @@
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
         <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2314,10 +2375,10 @@
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
         <v>42</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2325,10 +2386,10 @@
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
         <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>45</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2336,10 +2397,10 @@
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2347,10 +2408,10 @@
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s">
         <v>49</v>
-      </c>
-      <c r="H26" t="s">
-        <v>50</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2358,10 +2419,10 @@
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="H27">
+        <v>-17.899999999999999</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2369,21 +2430,21 @@
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28">
-        <v>-201.06</v>
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
         <v>56</v>
-      </c>
-      <c r="H29" t="s">
-        <v>57</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2391,21 +2452,21 @@
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" t="s">
         <v>58</v>
       </c>
-      <c r="H30" t="s">
-        <v>59</v>
-      </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" t="s">
         <v>61</v>
-      </c>
-      <c r="H31" t="s">
-        <v>62</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2413,10 +2474,10 @@
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
         <v>64</v>
-      </c>
-      <c r="H32" t="s">
-        <v>65</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2424,10 +2485,10 @@
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
         <v>68</v>
-      </c>
-      <c r="H33" t="s">
-        <v>69</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2435,10 +2496,10 @@
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="H34">
+        <v>-6.52</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2446,10 +2507,10 @@
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2457,10 +2518,10 @@
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2468,10 +2529,10 @@
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37">
-        <v>-17.989999999999998</v>
+        <v>77</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2479,21 +2540,21 @@
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G39" t="s">
-        <v>84</v>
-      </c>
-      <c r="H39" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="H39">
+        <v>-0.05</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2501,10 +2562,10 @@
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2512,10 +2573,10 @@
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2523,10 +2584,10 @@
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G42" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42">
-        <v>-6.51</v>
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2534,21 +2595,21 @@
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2556,10 +2617,10 @@
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G45" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H45" t="s">
+        <v>93</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2567,10 +2628,10 @@
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46">
-        <v>-0.06</v>
+        <v>94</v>
+      </c>
+      <c r="H46" t="s">
+        <v>91</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2578,10 +2639,10 @@
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H47" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2589,10 +2650,10 @@
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2600,10 +2661,10 @@
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G49" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2611,10 +2672,10 @@
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G50" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2622,10 +2683,10 @@
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G51" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2633,10 +2694,10 @@
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G52" t="s">
-        <v>108</v>
-      </c>
-      <c r="H52" t="s">
         <v>102</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2644,7 +2705,7 @@
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G53" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H53" t="s">
         <v>99</v>
@@ -2655,10 +2716,10 @@
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G54" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2666,10 +2727,10 @@
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G55" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H55" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2677,10 +2738,10 @@
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G56" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H56" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2688,10 +2749,10 @@
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H57" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2699,10 +2760,10 @@
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H58" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2710,10 +2771,10 @@
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H59" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2721,10 +2782,10 @@
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H60" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2732,10 +2793,10 @@
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H61" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2743,10 +2804,10 @@
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G62" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H62" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2754,10 +2815,10 @@
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H63" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2765,10 +2826,10 @@
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H64" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2776,10 +2837,10 @@
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G65" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H65" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2787,10 +2848,10 @@
     </row>
     <row r="66" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G66" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H66" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2798,10 +2859,10 @@
     </row>
     <row r="67" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G67" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H67" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2809,10 +2870,10 @@
     </row>
     <row r="68" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G68" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H68" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2820,10 +2881,10 @@
     </row>
     <row r="69" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G69" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2831,10 +2892,10 @@
     </row>
     <row r="70" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G70" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H70" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2842,10 +2903,10 @@
     </row>
     <row r="71" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G71" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2853,12 +2914,56 @@
     </row>
     <row r="72" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G72" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G73" t="s">
+        <v>129</v>
+      </c>
+      <c r="H73" t="s">
+        <v>85</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G74" t="s">
+        <v>130</v>
+      </c>
+      <c r="H74" t="s">
+        <v>87</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G75" t="s">
+        <v>131</v>
+      </c>
+      <c r="H75" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G76" t="s">
+        <v>132</v>
+      </c>
+      <c r="H76" t="s">
+        <v>87</v>
+      </c>
+      <c r="I76">
         <v>0</v>
       </c>
     </row>
@@ -2869,7 +2974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBA7CE9-E6E7-4E9F-981A-206E3B7D5CA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA948069-6BDE-455B-95D4-E57B98BF4B92}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2880,7 +2985,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -2890,7 +2995,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2898,7 +3003,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2906,7 +3011,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2914,7 +3019,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2922,7 +3027,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10">
         <v>1</v>

--- a/Examples/paper_participation/ModalConfig.xlsx
+++ b/Examples/paper_participation/ModalConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_participation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AEF3D2-F25A-4B0E-ABD2-FAA03F282679}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066ED6C2-657C-40ED-B301-ED157E22119F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1725" windowWidth="3600" windowHeight="1845" firstSheet="2" activeTab="2" xr2:uid="{2B771158-C5EF-47E5-B0CD-8BA481E90AC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="102" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="103" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="104" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="108" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="109" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="110" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="151">
   <si>
     <t>Select states for state participation analysis. Only 1 mode should be selected.</t>
   </si>
@@ -92,7 +92,7 @@
     <t>Mode5</t>
   </si>
   <si>
-    <t>-158.53+1457.02i</t>
+    <t>-3745991.33+50.00i</t>
   </si>
   <si>
     <t>Device2</t>
@@ -101,31 +101,31 @@
     <t>Mode6</t>
   </si>
   <si>
-    <t>-158.53-1457.02i</t>
+    <t>-3745991.33-50.00i</t>
   </si>
   <si>
     <t>Mode7</t>
   </si>
   <si>
-    <t>-158.53+1357.02i</t>
+    <t>-2995548.71+50.00i</t>
   </si>
   <si>
     <t>Mode8</t>
   </si>
   <si>
-    <t>-158.53-1357.02i</t>
+    <t>-2995548.71-50.00i</t>
   </si>
   <si>
     <t>Mode9</t>
   </si>
   <si>
-    <t>-161.91+1192.30i</t>
+    <t>-2994991.60+50.00i</t>
   </si>
   <si>
     <t>Mode10</t>
   </si>
   <si>
-    <t>-161.91-1192.30i</t>
+    <t>-2994991.60-50.00i</t>
   </si>
   <si>
     <t>Device3</t>
@@ -134,28 +134,31 @@
     <t>Mode11</t>
   </si>
   <si>
-    <t>-161.91+1092.30i</t>
+    <t>-205226.64+50.00i</t>
   </si>
   <si>
     <t>Mode12</t>
   </si>
   <si>
-    <t>-161.91-1092.30i</t>
+    <t>-205226.64-50.00i</t>
   </si>
   <si>
     <t>Mode13</t>
   </si>
   <si>
+    <t>-45264.64+49.99i</t>
+  </si>
+  <si>
     <t>Mode14</t>
   </si>
   <si>
-    <t>-25.78+100.29i</t>
+    <t>-45264.64-49.99i</t>
   </si>
   <si>
     <t>Mode15</t>
   </si>
   <si>
-    <t>-25.78-100.29i</t>
+    <t>-3821.95+50.00i</t>
   </si>
   <si>
     <t>Device4</t>
@@ -164,19 +167,19 @@
     <t>Mode16</t>
   </si>
   <si>
-    <t>-12.00+50.02i</t>
+    <t>-3821.95-50.00i</t>
   </si>
   <si>
     <t>Mode17</t>
   </si>
   <si>
-    <t>-12.00-50.02i</t>
+    <t>-4662.79+50.00i</t>
   </si>
   <si>
     <t>Mode18</t>
   </si>
   <si>
-    <t>-3.14+54.10i</t>
+    <t>-4662.79-50.00i</t>
   </si>
   <si>
     <t>i_d_i</t>
@@ -185,7 +188,7 @@
     <t>Mode19</t>
   </si>
   <si>
-    <t>-3.14-54.10i</t>
+    <t>-5029.52+50.00i</t>
   </si>
   <si>
     <t>i_q_i</t>
@@ -194,25 +197,25 @@
     <t>Mode20</t>
   </si>
   <si>
+    <t>-5029.52-50.00i</t>
+  </si>
+  <si>
     <t>w_pll_i</t>
   </si>
   <si>
     <t>Mode21</t>
   </si>
   <si>
-    <t>-0.08+8.15i</t>
-  </si>
-  <si>
     <t>Mode22</t>
   </si>
   <si>
-    <t>-0.08-8.15i</t>
+    <t>-26.06+99.72i</t>
   </si>
   <si>
     <t>Mode23</t>
   </si>
   <si>
-    <t>0.03+4.48i</t>
+    <t>-26.06-99.72i</t>
   </si>
   <si>
     <t>v_dc</t>
@@ -221,7 +224,7 @@
     <t>Mode24</t>
   </si>
   <si>
-    <t>0.03-4.48i</t>
+    <t>-3.99+53.56i</t>
   </si>
   <si>
     <t>v_dc_i</t>
@@ -230,120 +233,135 @@
     <t>Mode25</t>
   </si>
   <si>
-    <t>-6.99+4.77i</t>
+    <t>-3.99-53.56i</t>
   </si>
   <si>
     <t>Line</t>
   </si>
   <si>
-    <t>x_br11_1</t>
+    <t>x_br1-1_1</t>
   </si>
   <si>
     <t>Mode26</t>
   </si>
   <si>
-    <t>-6.99-4.77i</t>
-  </si>
-  <si>
-    <t>x_br11_2</t>
+    <t>-5.55+50.00i</t>
+  </si>
+  <si>
+    <t>x_br1-1_2</t>
   </si>
   <si>
     <t>Mode27</t>
   </si>
   <si>
-    <t>x_br12_1</t>
+    <t>-5.55-50.00i</t>
+  </si>
+  <si>
+    <t>x_br1-2_1</t>
   </si>
   <si>
     <t>Mode28</t>
   </si>
   <si>
-    <t>-2.61+50.00i</t>
-  </si>
-  <si>
-    <t>x_br12_2</t>
+    <t>-5.64+50.04i</t>
+  </si>
+  <si>
+    <t>x_br1-2_2</t>
   </si>
   <si>
     <t>Mode29</t>
   </si>
   <si>
-    <t>-2.61-50.00i</t>
+    <t>-5.64-50.04i</t>
+  </si>
+  <si>
+    <t>x_br1-3_1</t>
   </si>
   <si>
     <t>Mode30</t>
   </si>
   <si>
-    <t>-5.65+50.04i</t>
+    <t>x_br1-3_2</t>
   </si>
   <si>
     <t>Mode31</t>
   </si>
   <si>
-    <t>-5.65-50.04i</t>
-  </si>
-  <si>
-    <t>x_br13_1</t>
+    <t>-0.16+8.14i</t>
   </si>
   <si>
     <t>Mode32</t>
   </si>
   <si>
-    <t>x_br13_2</t>
+    <t>-0.16-8.14i</t>
   </si>
   <si>
     <t>Mode33</t>
   </si>
   <si>
+    <t>-7.02+4.77i</t>
+  </si>
+  <si>
+    <t>Mode34</t>
+  </si>
+  <si>
+    <t>-7.02-4.77i</t>
+  </si>
+  <si>
+    <t>Mode35</t>
+  </si>
+  <si>
+    <t>Mode36</t>
+  </si>
+  <si>
+    <t>-0.01+3.06i</t>
+  </si>
+  <si>
+    <t>Mode37</t>
+  </si>
+  <si>
+    <t>-0.01-3.06i</t>
+  </si>
+  <si>
+    <t>Mode38</t>
+  </si>
+  <si>
+    <t>Mode39</t>
+  </si>
+  <si>
+    <t>x_br2-2_1</t>
+  </si>
+  <si>
+    <t>Mode40</t>
+  </si>
+  <si>
     <t>-1.67+50.00i</t>
   </si>
   <si>
-    <t>Mode34</t>
+    <t>x_br2-2_2</t>
+  </si>
+  <si>
+    <t>Mode41</t>
   </si>
   <si>
     <t>-1.67-50.00i</t>
   </si>
   <si>
-    <t>Mode35</t>
-  </si>
-  <si>
-    <t>Mode36</t>
-  </si>
-  <si>
-    <t>Mode37</t>
-  </si>
-  <si>
-    <t>-5.00+50.00i</t>
-  </si>
-  <si>
-    <t>Mode38</t>
-  </si>
-  <si>
-    <t>-5.00-50.00i</t>
-  </si>
-  <si>
-    <t>Mode39</t>
-  </si>
-  <si>
-    <t>Mode40</t>
-  </si>
-  <si>
-    <t>Mode41</t>
+    <t>x_br2-3_1</t>
   </si>
   <si>
     <t>Mode42</t>
   </si>
   <si>
+    <t>x_br2-3_2</t>
+  </si>
+  <si>
     <t>Mode43</t>
   </si>
   <si>
-    <t>0.00+0.00i</t>
-  </si>
-  <si>
     <t>Mode44</t>
   </si>
   <si>
-    <t>0.00-0.00i</t>
-  </si>
-  <si>
     <t>Mode45</t>
   </si>
   <si>
@@ -353,27 +371,15 @@
     <t>Mode47</t>
   </si>
   <si>
-    <t>x_br22_1</t>
-  </si>
-  <si>
     <t>Mode48</t>
   </si>
   <si>
-    <t>x_br22_2</t>
-  </si>
-  <si>
     <t>Mode49</t>
   </si>
   <si>
-    <t>x_br23_1</t>
-  </si>
-  <si>
     <t>Mode50</t>
   </si>
   <si>
-    <t>x_br23_2</t>
-  </si>
-  <si>
     <t>Mode51</t>
   </si>
   <si>
@@ -383,15 +389,27 @@
     <t>Mode53</t>
   </si>
   <si>
+    <t>x_br3-3_1</t>
+  </si>
+  <si>
     <t>Mode54</t>
   </si>
   <si>
+    <t>x_br3-3_2</t>
+  </si>
+  <si>
     <t>Mode55</t>
   </si>
   <si>
+    <t>x_br3-4_1</t>
+  </si>
+  <si>
     <t>Mode56</t>
   </si>
   <si>
+    <t>x_br3-4_2</t>
+  </si>
+  <si>
     <t>Mode57</t>
   </si>
   <si>
@@ -407,34 +425,22 @@
     <t>Mode61</t>
   </si>
   <si>
-    <t>x_br34_1</t>
-  </si>
-  <si>
     <t>Mode62</t>
   </si>
   <si>
-    <t>x_br34_2</t>
-  </si>
-  <si>
     <t>Mode63</t>
   </si>
   <si>
+    <t>x_br4-4_1</t>
+  </si>
+  <si>
     <t>Mode64</t>
   </si>
   <si>
+    <t>x_br4-4_2</t>
+  </si>
+  <si>
     <t>Mode65</t>
-  </si>
-  <si>
-    <t>Mode66</t>
-  </si>
-  <si>
-    <t>Mode67</t>
-  </si>
-  <si>
-    <t>Mode68</t>
-  </si>
-  <si>
-    <t>Mode69</t>
   </si>
   <si>
     <t>Select devices and mode for bode-plot and Modal Layer1&amp;2 analysis</t>
@@ -840,11 +846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C839C35-93E7-4D8B-A690-0DA5439A3CD1}">
-  <dimension ref="A1:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FD33C7-AF3B-4A19-B687-C19BB0C200AF}">
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G75"/>
+      <selection activeCell="A6" sqref="A6:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1102,8 +1108,8 @@
       <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F19">
-        <v>-201.06</v>
+      <c r="F19" t="s">
+        <v>36</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1117,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1145,7 +1151,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1154,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1171,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1188,10 +1194,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1199,16 +1205,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1216,16 +1222,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26">
-        <v>-17.899999999999999</v>
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1233,19 +1239,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F27">
+        <v>-201.06</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1256,10 +1262,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1273,27 +1279,27 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1301,16 +1307,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1318,19 +1324,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1338,16 +1344,16 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33">
-        <v>-6.52</v>
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1355,16 +1361,16 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1372,16 +1378,16 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1389,16 +1395,16 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F36" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>-17.989999999999998</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1406,33 +1412,33 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38">
-        <v>-0.05</v>
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1440,16 +1446,16 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1457,16 +1463,16 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1474,16 +1480,16 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="F41">
+        <v>-6.51</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1491,33 +1497,33 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1525,16 +1531,16 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1542,16 +1548,16 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="F45">
+        <v>-0.06</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1559,16 +1565,16 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1576,16 +1582,16 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1593,16 +1599,16 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1610,16 +1616,16 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1627,16 +1633,16 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1644,16 +1650,16 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" t="s">
         <v>102</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -1661,13 +1667,13 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
         <v>99</v>
@@ -1678,16 +1684,16 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -1695,16 +1701,16 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -1712,16 +1718,16 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -1729,16 +1735,16 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1746,16 +1752,16 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -1763,16 +1769,16 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1780,16 +1786,16 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1797,16 +1803,16 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -1814,16 +1820,16 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1831,16 +1837,16 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -1848,16 +1854,16 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -1865,16 +1871,16 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -1882,16 +1888,16 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -1899,16 +1905,16 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -1916,16 +1922,16 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -1933,16 +1939,16 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -1950,16 +1956,16 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -1967,16 +1973,16 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -1984,108 +1990,41 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B73" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>130</v>
-      </c>
-      <c r="F73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
-        <v>123</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>131</v>
-      </c>
-      <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>132</v>
-      </c>
-      <c r="F75" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3336C7B-281E-4667-98C0-1CAF32DAB9B6}">
-  <dimension ref="A1:L76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF4BDAE-73D4-4F41-A439-C688D117F6DE}">
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:L76"/>
+      <selection activeCell="A6" sqref="A6:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -2095,16 +2034,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -2115,7 +2054,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -2144,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2173,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2202,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2225,13 +2164,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2246,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2344,8 +2283,8 @@
       <c r="G20" t="s">
         <v>35</v>
       </c>
-      <c r="H20">
-        <v>-201.06</v>
+      <c r="H20" t="s">
+        <v>36</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2353,10 +2292,10 @@
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2364,10 +2303,10 @@
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2375,10 +2314,10 @@
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2386,10 +2325,10 @@
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2397,10 +2336,10 @@
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2408,10 +2347,10 @@
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2419,10 +2358,10 @@
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G27" t="s">
-        <v>51</v>
-      </c>
-      <c r="H27">
-        <v>-17.899999999999999</v>
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2430,21 +2369,21 @@
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="H28">
+        <v>-201.06</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2452,21 +2391,21 @@
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2474,10 +2413,10 @@
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2485,10 +2424,10 @@
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2496,10 +2435,10 @@
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G34" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34">
-        <v>-6.52</v>
+        <v>71</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2507,10 +2446,10 @@
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2518,10 +2457,10 @@
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2529,10 +2468,10 @@
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="H37">
+        <v>-17.989999999999998</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2540,21 +2479,21 @@
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G39" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39">
-        <v>-0.05</v>
+        <v>84</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2562,10 +2501,10 @@
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2573,10 +2512,10 @@
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2584,10 +2523,10 @@
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G42" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="H42">
+        <v>-6.51</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2595,21 +2534,21 @@
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2617,10 +2556,10 @@
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G45" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2628,10 +2567,10 @@
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G46" t="s">
-        <v>94</v>
-      </c>
-      <c r="H46" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="H46">
+        <v>-0.06</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2639,10 +2578,10 @@
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G47" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H47" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2650,10 +2589,10 @@
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G48" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H48" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2661,10 +2600,10 @@
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G49" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H49" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2672,10 +2611,10 @@
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G50" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2683,10 +2622,10 @@
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G51" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2694,10 +2633,10 @@
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G52" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" t="s">
         <v>102</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2705,7 +2644,7 @@
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G53" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H53" t="s">
         <v>99</v>
@@ -2716,10 +2655,10 @@
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G54" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2727,10 +2666,10 @@
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G55" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2738,10 +2677,10 @@
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G56" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H56" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2749,10 +2688,10 @@
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G57" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2760,10 +2699,10 @@
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2771,10 +2710,10 @@
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G59" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2782,10 +2721,10 @@
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G60" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2793,10 +2732,10 @@
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G61" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2804,10 +2743,10 @@
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G62" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2815,10 +2754,10 @@
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G63" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2826,10 +2765,10 @@
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G64" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2837,10 +2776,10 @@
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G65" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2848,10 +2787,10 @@
     </row>
     <row r="66" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G66" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2859,10 +2798,10 @@
     </row>
     <row r="67" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G67" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2870,10 +2809,10 @@
     </row>
     <row r="68" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G68" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2881,10 +2820,10 @@
     </row>
     <row r="69" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G69" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2892,10 +2831,10 @@
     </row>
     <row r="70" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G70" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2903,10 +2842,10 @@
     </row>
     <row r="71" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G71" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2914,56 +2853,12 @@
     </row>
     <row r="72" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G72" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G73" t="s">
-        <v>129</v>
-      </c>
-      <c r="H73" t="s">
-        <v>85</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G74" t="s">
-        <v>130</v>
-      </c>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G75" t="s">
-        <v>131</v>
-      </c>
-      <c r="H75" t="s">
-        <v>85</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.4">
-      <c r="G76" t="s">
-        <v>132</v>
-      </c>
-      <c r="H76" t="s">
-        <v>87</v>
-      </c>
-      <c r="I76">
         <v>0</v>
       </c>
     </row>
@@ -2974,7 +2869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA948069-6BDE-455B-95D4-E57B98BF4B92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4DF705-5BBE-42E9-9097-8007C1E344CB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2985,7 +2880,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -2995,7 +2890,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -3003,7 +2898,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3011,7 +2906,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3019,7 +2914,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3027,7 +2922,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10">
         <v>1</v>

--- a/Examples/paper_participation/ModalConfig.xlsx
+++ b/Examples/paper_participation/ModalConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_participation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE593EE0-EE71-46C5-8FED-4102BE605D24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEF93ED-575C-46B0-BC0E-FB80CD95137D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1013" yWindow="2737" windowWidth="3600" windowHeight="1846" firstSheet="2" activeTab="2" xr2:uid="{2B771158-C5EF-47E5-B0CD-8BA481E90AC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="123" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="124" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="125" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="141" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="142" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="143" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
     <t>Mode5</t>
   </si>
   <si>
-    <t>-3745991.33+50.00i</t>
+    <t>-2494320.45+50.00i</t>
   </si>
   <si>
     <t>Device2</t>
@@ -101,31 +101,31 @@
     <t>Mode6</t>
   </si>
   <si>
-    <t>-3745991.33-50.00i</t>
+    <t>-2494320.45-50.00i</t>
   </si>
   <si>
     <t>Mode7</t>
   </si>
   <si>
-    <t>-2995548.71+50.00i</t>
+    <t>-230.40+135868.84i</t>
   </si>
   <si>
     <t>Mode8</t>
   </si>
   <si>
-    <t>-2995548.71-50.00i</t>
+    <t>-230.40-135868.84i</t>
   </si>
   <si>
     <t>Mode9</t>
   </si>
   <si>
-    <t>-2994991.60+50.00i</t>
+    <t>-230.40+135768.84i</t>
   </si>
   <si>
     <t>Mode10</t>
   </si>
   <si>
-    <t>-2994991.60-50.00i</t>
+    <t>-230.40-135768.84i</t>
   </si>
   <si>
     <t>Device3</t>
@@ -134,31 +134,31 @@
     <t>Mode11</t>
   </si>
   <si>
-    <t>-205226.64+50.00i</t>
+    <t>-18.65+119506.08i</t>
   </si>
   <si>
     <t>Mode12</t>
   </si>
   <si>
-    <t>-205226.64-50.00i</t>
+    <t>-18.65-119506.08i</t>
   </si>
   <si>
     <t>Mode13</t>
   </si>
   <si>
-    <t>-45264.64+49.99i</t>
+    <t>-18.65+119406.08i</t>
   </si>
   <si>
     <t>Mode14</t>
   </si>
   <si>
-    <t>-45264.64-49.99i</t>
+    <t>-18.65-119406.08i</t>
   </si>
   <si>
     <t>Mode15</t>
   </si>
   <si>
-    <t>-3821.95+50.00i</t>
+    <t>-29.14+98918.21i</t>
   </si>
   <si>
     <t>Device4</t>
@@ -167,19 +167,19 @@
     <t>Mode16</t>
   </si>
   <si>
-    <t>-3821.95-50.00i</t>
+    <t>-29.14-98918.21i</t>
   </si>
   <si>
     <t>Mode17</t>
   </si>
   <si>
-    <t>-4662.79+50.00i</t>
+    <t>-29.14+99018.21i</t>
   </si>
   <si>
     <t>Mode18</t>
   </si>
   <si>
-    <t>-4662.79-50.00i</t>
+    <t>-29.14-99018.21i</t>
   </si>
   <si>
     <t>i_d_i</t>
@@ -188,7 +188,7 @@
     <t>Mode19</t>
   </si>
   <si>
-    <t>-5029.52+50.00i</t>
+    <t>-5661.60+50.00i</t>
   </si>
   <si>
     <t>i_q_i</t>
@@ -197,7 +197,7 @@
     <t>Mode20</t>
   </si>
   <si>
-    <t>-5029.52-50.00i</t>
+    <t>-5661.60-50.00i</t>
   </si>
   <si>
     <t>w_pll_i</t>
@@ -209,13 +209,13 @@
     <t>Mode22</t>
   </si>
   <si>
-    <t>-26.06+99.72i</t>
+    <t>-25.78+100.29i</t>
   </si>
   <si>
     <t>Mode23</t>
   </si>
   <si>
-    <t>-26.06-99.72i</t>
+    <t>-25.78-100.29i</t>
   </si>
   <si>
     <t>v_dc</t>
@@ -224,7 +224,7 @@
     <t>Mode24</t>
   </si>
   <si>
-    <t>-3.99+53.56i</t>
+    <t>-3.14+54.10i</t>
   </si>
   <si>
     <t>v_dc_i</t>
@@ -233,7 +233,7 @@
     <t>Mode25</t>
   </si>
   <si>
-    <t>-3.99-53.56i</t>
+    <t>-3.14-54.10i</t>
   </si>
   <si>
     <t>Line</t>
@@ -245,7 +245,7 @@
     <t>Mode26</t>
   </si>
   <si>
-    <t>-5.55+50.00i</t>
+    <t>-5.56+50.00i</t>
   </si>
   <si>
     <t>x_br1-1_2</t>
@@ -254,7 +254,7 @@
     <t>Mode27</t>
   </si>
   <si>
-    <t>-5.55-50.00i</t>
+    <t>-5.56-50.00i</t>
   </si>
   <si>
     <t>x_br1-2_1</t>
@@ -263,7 +263,7 @@
     <t>Mode28</t>
   </si>
   <si>
-    <t>-5.64+50.04i</t>
+    <t>-5.65+50.04i</t>
   </si>
   <si>
     <t>x_br1-2_2</t>
@@ -272,7 +272,7 @@
     <t>Mode29</t>
   </si>
   <si>
-    <t>-5.64-50.04i</t>
+    <t>-5.65-50.04i</t>
   </si>
   <si>
     <t>x_br1-3_1</t>
@@ -287,25 +287,25 @@
     <t>Mode31</t>
   </si>
   <si>
-    <t>-0.16+8.14i</t>
+    <t>-0.08+8.13i</t>
   </si>
   <si>
     <t>Mode32</t>
   </si>
   <si>
-    <t>-0.16-8.14i</t>
+    <t>-0.08-8.13i</t>
   </si>
   <si>
     <t>Mode33</t>
   </si>
   <si>
-    <t>-7.02+4.77i</t>
+    <t>-6.99+4.77i</t>
   </si>
   <si>
     <t>Mode34</t>
   </si>
   <si>
-    <t>-7.02-4.77i</t>
+    <t>-6.99-4.77i</t>
   </si>
   <si>
     <t>Mode35</t>
@@ -314,13 +314,13 @@
     <t>Mode36</t>
   </si>
   <si>
-    <t>-0.01+3.06i</t>
+    <t>-0.00+3.01i</t>
   </si>
   <si>
     <t>Mode37</t>
   </si>
   <si>
-    <t>-0.01-3.06i</t>
+    <t>-0.00-3.01i</t>
   </si>
   <si>
     <t>Mode38</t>
@@ -846,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0AE263-6FF9-4DF3-9331-B7B99B1D3A68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F2770F-57BE-486A-82C3-8018003F0B1B}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -1404,7 +1404,7 @@
         <v>80</v>
       </c>
       <c r="F36">
-        <v>-17.989999999999998</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>90</v>
       </c>
       <c r="F41">
-        <v>-6.51</v>
+        <v>-6.52</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>96</v>
       </c>
       <c r="F45">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2012,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57640E6F-629C-4EC9-985A-10B26D0F8704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4C0978-5480-40BA-AB01-44CCE0201E98}">
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -2470,7 +2470,7 @@
         <v>80</v>
       </c>
       <c r="H37">
-        <v>-17.989999999999998</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>90</v>
       </c>
       <c r="H42">
-        <v>-6.51</v>
+        <v>-6.52</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>96</v>
       </c>
       <c r="H46">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2868,7 +2868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4BFC17-6186-4735-B951-BCF44AFB2BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7856D62-43A9-4197-94A9-8FAD2F59E807}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Examples/paper_participation/ModalConfig.xlsx
+++ b/Examples/paper_participation/ModalConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_participation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEF93ED-575C-46B0-BC0E-FB80CD95137D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644279FD-AE0B-4752-9285-012BBCA28940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1013" yWindow="2737" windowWidth="3600" windowHeight="1846" firstSheet="2" activeTab="2" xr2:uid="{2B771158-C5EF-47E5-B0CD-8BA481E90AC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="141" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="142" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="143" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="144" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="145" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="146" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="431">
   <si>
     <t>Select states for state participation analysis. Only 1 mode should be selected.</t>
   </si>
@@ -92,40 +92,37 @@
     <t>Mode5</t>
   </si>
   <si>
-    <t>-2494320.45+50.00i</t>
-  </si>
-  <si>
     <t>Device2</t>
   </si>
   <si>
     <t>Mode6</t>
   </si>
   <si>
-    <t>-2494320.45-50.00i</t>
+    <t>-26798.04+60.00i</t>
   </si>
   <si>
     <t>Mode7</t>
   </si>
   <si>
-    <t>-230.40+135868.84i</t>
+    <t>-26798.04-60.00i</t>
   </si>
   <si>
     <t>Mode8</t>
   </si>
   <si>
-    <t>-230.40-135868.84i</t>
+    <t>-18098.39+60.00i</t>
   </si>
   <si>
     <t>Mode9</t>
   </si>
   <si>
-    <t>-230.40+135768.84i</t>
+    <t>-18098.39-60.00i</t>
   </si>
   <si>
     <t>Mode10</t>
   </si>
   <si>
-    <t>-230.40-135768.84i</t>
+    <t>-12993.71+60.00i</t>
   </si>
   <si>
     <t>Device3</t>
@@ -134,106 +131,97 @@
     <t>Mode11</t>
   </si>
   <si>
-    <t>-18.65+119506.08i</t>
+    <t>-12993.71-60.00i</t>
   </si>
   <si>
     <t>Mode12</t>
   </si>
   <si>
-    <t>-18.65-119506.08i</t>
+    <t>-10637.59+60.00i</t>
   </si>
   <si>
     <t>Mode13</t>
   </si>
   <si>
-    <t>-18.65+119406.08i</t>
+    <t>-10637.59-60.00i</t>
   </si>
   <si>
     <t>Mode14</t>
   </si>
   <si>
-    <t>-18.65-119406.08i</t>
+    <t>-3838.82+60.00i</t>
   </si>
   <si>
     <t>Mode15</t>
   </si>
   <si>
-    <t>-29.14+98918.21i</t>
-  </si>
-  <si>
-    <t>Device4</t>
+    <t>-3838.82-60.00i</t>
+  </si>
+  <si>
+    <t>Device6</t>
   </si>
   <si>
     <t>Mode16</t>
   </si>
   <si>
-    <t>-29.14-98918.21i</t>
+    <t>-2800.51+60.00i</t>
   </si>
   <si>
     <t>Mode17</t>
   </si>
   <si>
-    <t>-29.14+99018.21i</t>
+    <t>-2800.51-60.00i</t>
   </si>
   <si>
     <t>Mode18</t>
   </si>
   <si>
-    <t>-29.14-99018.21i</t>
-  </si>
-  <si>
-    <t>i_d_i</t>
+    <t>-133.32+2191.64i</t>
   </si>
   <si>
     <t>Mode19</t>
   </si>
   <si>
-    <t>-5661.60+50.00i</t>
-  </si>
-  <si>
-    <t>i_q_i</t>
+    <t>-133.32-2191.64i</t>
   </si>
   <si>
     <t>Mode20</t>
   </si>
   <si>
-    <t>-5661.60-50.00i</t>
-  </si>
-  <si>
-    <t>w_pll_i</t>
+    <t>-133.32+2071.64i</t>
+  </si>
+  <si>
+    <t>Device8</t>
   </si>
   <si>
     <t>Mode21</t>
   </si>
   <si>
+    <t>-133.32-2071.64i</t>
+  </si>
+  <si>
     <t>Mode22</t>
   </si>
   <si>
-    <t>-25.78+100.29i</t>
+    <t>-46.02+1790.29i</t>
   </si>
   <si>
     <t>Mode23</t>
   </si>
   <si>
-    <t>-25.78-100.29i</t>
-  </si>
-  <si>
-    <t>v_dc</t>
+    <t>-46.02-1790.29i</t>
   </si>
   <si>
     <t>Mode24</t>
   </si>
   <si>
-    <t>-3.14+54.10i</t>
-  </si>
-  <si>
-    <t>v_dc_i</t>
+    <t>-46.02+1670.29i</t>
   </si>
   <si>
     <t>Mode25</t>
   </si>
   <si>
-    <t>-3.14-54.10i</t>
+    <t>-46.02-1670.29i</t>
   </si>
   <si>
     <t>Line</t>
@@ -245,7 +233,7 @@
     <t>Mode26</t>
   </si>
   <si>
-    <t>-5.56+50.00i</t>
+    <t>-926.91+1375.85i</t>
   </si>
   <si>
     <t>x_br1-1_2</t>
@@ -254,7 +242,7 @@
     <t>Mode27</t>
   </si>
   <si>
-    <t>-5.56-50.00i</t>
+    <t>-926.91-1375.85i</t>
   </si>
   <si>
     <t>x_br1-2_1</t>
@@ -263,7 +251,7 @@
     <t>Mode28</t>
   </si>
   <si>
-    <t>-5.65+50.04i</t>
+    <t>-926.91+1255.85i</t>
   </si>
   <si>
     <t>x_br1-2_2</t>
@@ -272,70 +260,82 @@
     <t>Mode29</t>
   </si>
   <si>
-    <t>-5.65-50.04i</t>
-  </si>
-  <si>
-    <t>x_br1-3_1</t>
+    <t>-926.91-1255.85i</t>
+  </si>
+  <si>
+    <t>x_br1-5_1</t>
   </si>
   <si>
     <t>Mode30</t>
   </si>
   <si>
-    <t>x_br1-3_2</t>
+    <t>-120.49+1281.23i</t>
+  </si>
+  <si>
+    <t>x_br1-5_2</t>
   </si>
   <si>
     <t>Mode31</t>
   </si>
   <si>
-    <t>-0.08+8.13i</t>
+    <t>-120.49-1281.23i</t>
   </si>
   <si>
     <t>Mode32</t>
   </si>
   <si>
-    <t>-0.08-8.13i</t>
+    <t>-120.49+1161.23i</t>
   </si>
   <si>
     <t>Mode33</t>
   </si>
   <si>
-    <t>-6.99+4.77i</t>
+    <t>-120.49-1161.23i</t>
   </si>
   <si>
     <t>Mode34</t>
   </si>
   <si>
-    <t>-6.99-4.77i</t>
+    <t>-930.89+60.00i</t>
   </si>
   <si>
     <t>Mode35</t>
   </si>
   <si>
+    <t>-930.89-60.00i</t>
+  </si>
+  <si>
     <t>Mode36</t>
   </si>
   <si>
-    <t>-0.00+3.01i</t>
+    <t>-185.39+755.73i</t>
   </si>
   <si>
     <t>Mode37</t>
   </si>
   <si>
-    <t>-0.00-3.01i</t>
+    <t>-185.39-755.73i</t>
   </si>
   <si>
     <t>Mode38</t>
   </si>
   <si>
+    <t>-185.38+635.73i</t>
+  </si>
+  <si>
     <t>Mode39</t>
   </si>
   <si>
+    <t>-185.38-635.73i</t>
+  </si>
+  <si>
     <t>x_br2-2_1</t>
   </si>
   <si>
     <t>Mode40</t>
   </si>
   <si>
-    <t>-1.67+50.00i</t>
+    <t>-66.32+60.00i</t>
   </si>
   <si>
     <t>x_br2-2_2</t>
@@ -344,103 +344,943 @@
     <t>Mode41</t>
   </si>
   <si>
-    <t>-1.67-50.00i</t>
+    <t>-66.32-60.00i</t>
+  </si>
+  <si>
+    <t>x_br2-2_5</t>
+  </si>
+  <si>
+    <t>Mode42</t>
+  </si>
+  <si>
+    <t>x_br2-2_6</t>
+  </si>
+  <si>
+    <t>Mode43</t>
   </si>
   <si>
     <t>x_br2-3_1</t>
   </si>
   <si>
-    <t>Mode42</t>
+    <t>Mode44</t>
   </si>
   <si>
     <t>x_br2-3_2</t>
   </si>
   <si>
-    <t>Mode43</t>
-  </si>
-  <si>
-    <t>Mode44</t>
-  </si>
-  <si>
     <t>Mode45</t>
   </si>
   <si>
+    <t>x_br2-4_1</t>
+  </si>
+  <si>
     <t>Mode46</t>
   </si>
   <si>
+    <t>-42.25+60.00i</t>
+  </si>
+  <si>
+    <t>x_br2-4_2</t>
+  </si>
+  <si>
     <t>Mode47</t>
   </si>
   <si>
+    <t>-42.25-60.00i</t>
+  </si>
+  <si>
+    <t>x_br2-5_1</t>
+  </si>
+  <si>
     <t>Mode48</t>
   </si>
   <si>
+    <t>-0.04+3.51i</t>
+  </si>
+  <si>
+    <t>x_br2-5_2</t>
+  </si>
+  <si>
     <t>Mode49</t>
   </si>
   <si>
+    <t>-0.04-3.51i</t>
+  </si>
+  <si>
     <t>Mode50</t>
   </si>
   <si>
+    <t>-0.05+2.78i</t>
+  </si>
+  <si>
     <t>Mode51</t>
   </si>
   <si>
+    <t>-0.05-2.78i</t>
+  </si>
+  <si>
     <t>Mode52</t>
   </si>
   <si>
+    <t>-0.05+2.44i</t>
+  </si>
+  <si>
     <t>Mode53</t>
   </si>
   <si>
+    <t>-0.05-2.44i</t>
+  </si>
+  <si>
+    <t>Mode54</t>
+  </si>
+  <si>
+    <t>-0.05+2.03i</t>
+  </si>
+  <si>
+    <t>Mode55</t>
+  </si>
+  <si>
+    <t>-0.05-2.03i</t>
+  </si>
+  <si>
+    <t>Mode56</t>
+  </si>
+  <si>
+    <t>-0.06+0.10i</t>
+  </si>
+  <si>
+    <t>Mode57</t>
+  </si>
+  <si>
+    <t>-0.06-0.10i</t>
+  </si>
+  <si>
+    <t>Mode58</t>
+  </si>
+  <si>
+    <t>Mode59</t>
+  </si>
+  <si>
     <t>x_br3-3_1</t>
   </si>
   <si>
-    <t>Mode54</t>
+    <t>Mode60</t>
   </si>
   <si>
     <t>x_br3-3_2</t>
   </si>
   <si>
-    <t>Mode55</t>
+    <t>Mode61</t>
+  </si>
+  <si>
+    <t>x_br3-3_5</t>
+  </si>
+  <si>
+    <t>Mode62</t>
+  </si>
+  <si>
+    <t>-5.19+60.00i</t>
+  </si>
+  <si>
+    <t>x_br3-3_6</t>
+  </si>
+  <si>
+    <t>Mode63</t>
+  </si>
+  <si>
+    <t>-5.19-60.00i</t>
   </si>
   <si>
     <t>x_br3-4_1</t>
   </si>
   <si>
-    <t>Mode56</t>
+    <t>Mode64</t>
+  </si>
+  <si>
+    <t>-8.28+60.00i</t>
   </si>
   <si>
     <t>x_br3-4_2</t>
   </si>
   <si>
-    <t>Mode57</t>
-  </si>
-  <si>
-    <t>Mode58</t>
-  </si>
-  <si>
-    <t>Mode59</t>
-  </si>
-  <si>
-    <t>Mode60</t>
-  </si>
-  <si>
-    <t>Mode61</t>
-  </si>
-  <si>
-    <t>Mode62</t>
-  </si>
-  <si>
-    <t>Mode63</t>
+    <t>Mode65</t>
+  </si>
+  <si>
+    <t>-8.28-60.00i</t>
+  </si>
+  <si>
+    <t>Mode66</t>
+  </si>
+  <si>
+    <t>-10.66+60.00i</t>
+  </si>
+  <si>
+    <t>Mode67</t>
+  </si>
+  <si>
+    <t>-10.66-60.00i</t>
+  </si>
+  <si>
+    <t>Mode68</t>
+  </si>
+  <si>
+    <t>-2.31+60.00i</t>
+  </si>
+  <si>
+    <t>Mode69</t>
+  </si>
+  <si>
+    <t>-2.31-60.00i</t>
+  </si>
+  <si>
+    <t>Mode70</t>
+  </si>
+  <si>
+    <t>-15.86+60.00i</t>
+  </si>
+  <si>
+    <t>Mode71</t>
+  </si>
+  <si>
+    <t>-15.86-60.00i</t>
+  </si>
+  <si>
+    <t>Mode72</t>
+  </si>
+  <si>
+    <t>-16.68+60.00i</t>
+  </si>
+  <si>
+    <t>Mode73</t>
+  </si>
+  <si>
+    <t>-16.68-60.00i</t>
+  </si>
+  <si>
+    <t>Mode74</t>
+  </si>
+  <si>
+    <t>-25.63+60.00i</t>
+  </si>
+  <si>
+    <t>Mode75</t>
+  </si>
+  <si>
+    <t>-25.63-60.00i</t>
   </si>
   <si>
     <t>x_br4-4_1</t>
   </si>
   <si>
-    <t>Mode64</t>
+    <t>Mode76</t>
+  </si>
+  <si>
+    <t>-29.47+60.00i</t>
   </si>
   <si>
     <t>x_br4-4_2</t>
   </si>
   <si>
-    <t>Mode65</t>
+    <t>Mode77</t>
+  </si>
+  <si>
+    <t>-29.47-60.00i</t>
+  </si>
+  <si>
+    <t>x_br4-5_1</t>
+  </si>
+  <si>
+    <t>Mode78</t>
+  </si>
+  <si>
+    <t>x_br4-5_2</t>
+  </si>
+  <si>
+    <t>Mode79</t>
+  </si>
+  <si>
+    <t>x_br4-7_1</t>
+  </si>
+  <si>
+    <t>Mode80</t>
+  </si>
+  <si>
+    <t>-30.47+60.00i</t>
+  </si>
+  <si>
+    <t>x_br4-7_2</t>
+  </si>
+  <si>
+    <t>Mode81</t>
+  </si>
+  <si>
+    <t>-30.47-60.00i</t>
+  </si>
+  <si>
+    <t>x_br4-9_1</t>
+  </si>
+  <si>
+    <t>Mode82</t>
+  </si>
+  <si>
+    <t>x_br4-9_2</t>
+  </si>
+  <si>
+    <t>Mode83</t>
+  </si>
+  <si>
+    <t>Mode84</t>
+  </si>
+  <si>
+    <t>Mode85</t>
+  </si>
+  <si>
+    <t>Mode86</t>
+  </si>
+  <si>
+    <t>-0.29+60.00i</t>
+  </si>
+  <si>
+    <t>Mode87</t>
+  </si>
+  <si>
+    <t>-0.29-60.00i</t>
+  </si>
+  <si>
+    <t>Mode88</t>
+  </si>
+  <si>
+    <t>-28.16+60.00i</t>
+  </si>
+  <si>
+    <t>Mode89</t>
+  </si>
+  <si>
+    <t>-28.16-60.00i</t>
+  </si>
+  <si>
+    <t>Mode90</t>
+  </si>
+  <si>
+    <t>Mode91</t>
+  </si>
+  <si>
+    <t>Mode92</t>
+  </si>
+  <si>
+    <t>-14.24+60.00i</t>
+  </si>
+  <si>
+    <t>Mode93</t>
+  </si>
+  <si>
+    <t>-14.24-60.00i</t>
+  </si>
+  <si>
+    <t>Mode94</t>
+  </si>
+  <si>
+    <t>-14.53+60.00i</t>
+  </si>
+  <si>
+    <t>Mode95</t>
+  </si>
+  <si>
+    <t>-14.53-60.00i</t>
+  </si>
+  <si>
+    <t>Mode96</t>
+  </si>
+  <si>
+    <t>Mode97</t>
+  </si>
+  <si>
+    <t>Mode98</t>
+  </si>
+  <si>
+    <t>Mode99</t>
+  </si>
+  <si>
+    <t>Mode100</t>
+  </si>
+  <si>
+    <t>-28.83+60.00i</t>
+  </si>
+  <si>
+    <t>Mode101</t>
+  </si>
+  <si>
+    <t>-28.83-60.00i</t>
+  </si>
+  <si>
+    <t>x_br5-5_1</t>
+  </si>
+  <si>
+    <t>Mode102</t>
+  </si>
+  <si>
+    <t>x_br5-5_2</t>
+  </si>
+  <si>
+    <t>Mode103</t>
+  </si>
+  <si>
+    <t>x_br5-5_5</t>
+  </si>
+  <si>
+    <t>Mode104</t>
+  </si>
+  <si>
+    <t>x_br5-5_6</t>
+  </si>
+  <si>
+    <t>Mode105</t>
+  </si>
+  <si>
+    <t>x_br5-6_1</t>
+  </si>
+  <si>
+    <t>Mode106</t>
+  </si>
+  <si>
+    <t>x_br5-6_2</t>
+  </si>
+  <si>
+    <t>Mode107</t>
+  </si>
+  <si>
+    <t>Mode108</t>
+  </si>
+  <si>
+    <t>-22.59+60.00i</t>
+  </si>
+  <si>
+    <t>Mode109</t>
+  </si>
+  <si>
+    <t>-22.59-60.00i</t>
+  </si>
+  <si>
+    <t>Mode110</t>
+  </si>
+  <si>
+    <t>-0.13+60.00i</t>
+  </si>
+  <si>
+    <t>Mode111</t>
+  </si>
+  <si>
+    <t>-0.13-60.00i</t>
+  </si>
+  <si>
+    <t>Mode112</t>
+  </si>
+  <si>
+    <t>Mode113</t>
+  </si>
+  <si>
+    <t>x_br6-6_3</t>
+  </si>
+  <si>
+    <t>Mode114</t>
+  </si>
+  <si>
+    <t>-28.65+60.00i</t>
+  </si>
+  <si>
+    <t>x_br6-6_4</t>
+  </si>
+  <si>
+    <t>Mode115</t>
+  </si>
+  <si>
+    <t>-28.65-60.00i</t>
+  </si>
+  <si>
+    <t>x_br6-11_1</t>
+  </si>
+  <si>
+    <t>Mode116</t>
+  </si>
+  <si>
+    <t>x_br6-11_2</t>
+  </si>
+  <si>
+    <t>Mode117</t>
+  </si>
+  <si>
+    <t>x_br6-12_1</t>
+  </si>
+  <si>
+    <t>Mode118</t>
+  </si>
+  <si>
+    <t>-0.12+60.00i</t>
+  </si>
+  <si>
+    <t>x_br6-12_2</t>
+  </si>
+  <si>
+    <t>Mode119</t>
+  </si>
+  <si>
+    <t>-0.12-60.00i</t>
+  </si>
+  <si>
+    <t>x_br6-13_1</t>
+  </si>
+  <si>
+    <t>Mode120</t>
+  </si>
+  <si>
+    <t>-19.54+60.00i</t>
+  </si>
+  <si>
+    <t>x_br6-13_2</t>
+  </si>
+  <si>
+    <t>Mode121</t>
+  </si>
+  <si>
+    <t>-19.54-60.00i</t>
+  </si>
+  <si>
+    <t>Mode122</t>
+  </si>
+  <si>
+    <t>Mode123</t>
+  </si>
+  <si>
+    <t>Mode124</t>
+  </si>
+  <si>
+    <t>-23.51+60.00i</t>
+  </si>
+  <si>
+    <t>Mode125</t>
+  </si>
+  <si>
+    <t>-23.51-60.00i</t>
+  </si>
+  <si>
+    <t>Mode126</t>
+  </si>
+  <si>
+    <t>Mode127</t>
+  </si>
+  <si>
+    <t>Mode128</t>
+  </si>
+  <si>
+    <t>Mode129</t>
+  </si>
+  <si>
+    <t>Mode130</t>
+  </si>
+  <si>
+    <t>Mode131</t>
+  </si>
+  <si>
+    <t>x_br7-8_1</t>
+  </si>
+  <si>
+    <t>Mode132</t>
+  </si>
+  <si>
+    <t>-28.21+60.00i</t>
+  </si>
+  <si>
+    <t>x_br7-8_2</t>
+  </si>
+  <si>
+    <t>Mode133</t>
+  </si>
+  <si>
+    <t>-28.21-60.00i</t>
+  </si>
+  <si>
+    <t>x_br7-9_1</t>
+  </si>
+  <si>
+    <t>Mode134</t>
+  </si>
+  <si>
+    <t>-0.08+60.00i</t>
+  </si>
+  <si>
+    <t>x_br7-9_2</t>
+  </si>
+  <si>
+    <t>Mode135</t>
+  </si>
+  <si>
+    <t>-0.08-60.00i</t>
+  </si>
+  <si>
+    <t>Mode136</t>
+  </si>
+  <si>
+    <t>Mode137</t>
+  </si>
+  <si>
+    <t>Mode138</t>
+  </si>
+  <si>
+    <t>-19.68+60.00i</t>
+  </si>
+  <si>
+    <t>Mode139</t>
+  </si>
+  <si>
+    <t>-19.68-60.00i</t>
+  </si>
+  <si>
+    <t>Mode140</t>
+  </si>
+  <si>
+    <t>-0.06+60.00i</t>
+  </si>
+  <si>
+    <t>Mode141</t>
+  </si>
+  <si>
+    <t>-0.06-60.00i</t>
+  </si>
+  <si>
+    <t>Mode142</t>
+  </si>
+  <si>
+    <t>Mode143</t>
+  </si>
+  <si>
+    <t>Mode144</t>
+  </si>
+  <si>
+    <t>-19.02+60.00i</t>
+  </si>
+  <si>
+    <t>Mode145</t>
+  </si>
+  <si>
+    <t>-19.02-60.00i</t>
+  </si>
+  <si>
+    <t>Mode146</t>
+  </si>
+  <si>
+    <t>Mode147</t>
+  </si>
+  <si>
+    <t>Mode148</t>
+  </si>
+  <si>
+    <t>-19.77+60.00i</t>
+  </si>
+  <si>
+    <t>Mode149</t>
+  </si>
+  <si>
+    <t>-19.77-60.00i</t>
+  </si>
+  <si>
+    <t>Mode150</t>
+  </si>
+  <si>
+    <t>-0.04+60.00i</t>
+  </si>
+  <si>
+    <t>Mode151</t>
+  </si>
+  <si>
+    <t>-0.04-60.00i</t>
+  </si>
+  <si>
+    <t>x_br9-9_3</t>
+  </si>
+  <si>
+    <t>Mode152</t>
+  </si>
+  <si>
+    <t>x_br9-9_4</t>
+  </si>
+  <si>
+    <t>Mode153</t>
+  </si>
+  <si>
+    <t>x_br9-10_1</t>
+  </si>
+  <si>
+    <t>Mode154</t>
+  </si>
+  <si>
+    <t>x_br9-10_2</t>
+  </si>
+  <si>
+    <t>Mode155</t>
+  </si>
+  <si>
+    <t>x_br9-14_1</t>
+  </si>
+  <si>
+    <t>Mode156</t>
+  </si>
+  <si>
+    <t>x_br9-14_2</t>
+  </si>
+  <si>
+    <t>Mode157</t>
+  </si>
+  <si>
+    <t>Mode158</t>
+  </si>
+  <si>
+    <t>-0.03+60.00i</t>
+  </si>
+  <si>
+    <t>Mode159</t>
+  </si>
+  <si>
+    <t>-0.03-60.00i</t>
+  </si>
+  <si>
+    <t>Mode160</t>
+  </si>
+  <si>
+    <t>Mode161</t>
+  </si>
+  <si>
+    <t>Mode162</t>
+  </si>
+  <si>
+    <t>Mode163</t>
+  </si>
+  <si>
+    <t>Mode164</t>
+  </si>
+  <si>
+    <t>-0.02+60.00i</t>
+  </si>
+  <si>
+    <t>Mode165</t>
+  </si>
+  <si>
+    <t>-0.02-60.00i</t>
+  </si>
+  <si>
+    <t>x_br10-10_3</t>
+  </si>
+  <si>
+    <t>Mode166</t>
+  </si>
+  <si>
+    <t>-19.65+60.00i</t>
+  </si>
+  <si>
+    <t>x_br10-10_4</t>
+  </si>
+  <si>
+    <t>Mode167</t>
+  </si>
+  <si>
+    <t>-19.65-60.00i</t>
+  </si>
+  <si>
+    <t>x_br10-11_1</t>
+  </si>
+  <si>
+    <t>Mode168</t>
+  </si>
+  <si>
+    <t>x_br10-11_2</t>
+  </si>
+  <si>
+    <t>Mode169</t>
+  </si>
+  <si>
+    <t>Mode170</t>
+  </si>
+  <si>
+    <t>Mode171</t>
+  </si>
+  <si>
+    <t>Mode172</t>
+  </si>
+  <si>
+    <t>Mode173</t>
+  </si>
+  <si>
+    <t>Mode174</t>
+  </si>
+  <si>
+    <t>Mode175</t>
+  </si>
+  <si>
+    <t>Mode176</t>
+  </si>
+  <si>
+    <t>Mode177</t>
+  </si>
+  <si>
+    <t>Mode178</t>
+  </si>
+  <si>
+    <t>Mode179</t>
+  </si>
+  <si>
+    <t>x_br11-11_3</t>
+  </si>
+  <si>
+    <t>Mode180</t>
+  </si>
+  <si>
+    <t>x_br11-11_4</t>
+  </si>
+  <si>
+    <t>Mode181</t>
+  </si>
+  <si>
+    <t>Mode182</t>
+  </si>
+  <si>
+    <t>-0.00+60.00i</t>
+  </si>
+  <si>
+    <t>Mode183</t>
+  </si>
+  <si>
+    <t>-0.00-60.00i</t>
+  </si>
+  <si>
+    <t>Mode184</t>
+  </si>
+  <si>
+    <t>0.00+60.00i</t>
+  </si>
+  <si>
+    <t>Mode185</t>
+  </si>
+  <si>
+    <t>0.00-60.00i</t>
+  </si>
+  <si>
+    <t>x_br12-12_3</t>
+  </si>
+  <si>
+    <t>Mode186</t>
+  </si>
+  <si>
+    <t>x_br12-12_4</t>
+  </si>
+  <si>
+    <t>Mode187</t>
+  </si>
+  <si>
+    <t>x_br12-13_1</t>
+  </si>
+  <si>
+    <t>Mode188</t>
+  </si>
+  <si>
+    <t>x_br12-13_2</t>
+  </si>
+  <si>
+    <t>Mode189</t>
+  </si>
+  <si>
+    <t>Mode190</t>
+  </si>
+  <si>
+    <t>Mode191</t>
+  </si>
+  <si>
+    <t>Mode192</t>
+  </si>
+  <si>
+    <t>Mode193</t>
+  </si>
+  <si>
+    <t>Mode194</t>
+  </si>
+  <si>
+    <t>Mode195</t>
+  </si>
+  <si>
+    <t>Mode196</t>
+  </si>
+  <si>
+    <t>Mode197</t>
+  </si>
+  <si>
+    <t>Mode198</t>
+  </si>
+  <si>
+    <t>Mode199</t>
+  </si>
+  <si>
+    <t>x_br13-13_3</t>
+  </si>
+  <si>
+    <t>Mode200</t>
+  </si>
+  <si>
+    <t>x_br13-13_4</t>
+  </si>
+  <si>
+    <t>Mode201</t>
+  </si>
+  <si>
+    <t>x_br13-14_1</t>
+  </si>
+  <si>
+    <t>Mode202</t>
+  </si>
+  <si>
+    <t>x_br13-14_2</t>
+  </si>
+  <si>
+    <t>Mode203</t>
+  </si>
+  <si>
+    <t>Mode204</t>
+  </si>
+  <si>
+    <t>Mode205</t>
+  </si>
+  <si>
+    <t>Mode206</t>
+  </si>
+  <si>
+    <t>Mode207</t>
+  </si>
+  <si>
+    <t>Mode208</t>
+  </si>
+  <si>
+    <t>Mode209</t>
+  </si>
+  <si>
+    <t>Mode210</t>
+  </si>
+  <si>
+    <t>Mode211</t>
+  </si>
+  <si>
+    <t>Mode212</t>
+  </si>
+  <si>
+    <t>Mode213</t>
+  </si>
+  <si>
+    <t>x_br14-14_3</t>
+  </si>
+  <si>
+    <t>Mode214</t>
+  </si>
+  <si>
+    <t>x_br14-14_4</t>
+  </si>
+  <si>
+    <t>Mode215</t>
   </si>
   <si>
     <t>Select devices and mode for bode-plot and Modal Layer1&amp;2 analysis</t>
@@ -846,11 +1686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F2770F-57BE-486A-82C3-8018003F0B1B}">
-  <dimension ref="A1:G71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794976A6-CDC5-4529-9F52-1AE9E146357E}">
+  <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G71"/>
+      <selection activeCell="A6" sqref="A6:G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -966,8 +1806,8 @@
       <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -975,7 +1815,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -984,10 +1824,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1001,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1018,10 +1858,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
         <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1035,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1052,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
         <v>28</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1063,7 +1903,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1072,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1089,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1106,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1123,10 +1963,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1140,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1151,7 +1991,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1160,10 +2000,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
         <v>42</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1177,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
         <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>45</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1194,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
         <v>46</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1205,16 +2045,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1222,33 +2062,36 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27">
-        <v>-201.06</v>
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1256,16 +2099,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1273,16 +2116,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1290,16 +2133,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1307,16 +2150,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1324,19 +2167,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1344,16 +2187,16 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1361,16 +2204,16 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1378,16 +2221,16 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1395,16 +2238,16 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36">
-        <v>-17.899999999999999</v>
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1412,33 +2255,33 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1446,16 +2289,16 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1463,16 +2306,16 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1480,16 +2323,16 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41">
-        <v>-6.52</v>
+        <v>87</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1497,33 +2340,33 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1531,16 +2374,16 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
+        <v>94</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1548,16 +2391,16 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" t="s">
         <v>96</v>
-      </c>
-      <c r="F45">
-        <v>-0.04</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1633,13 +2476,13 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F50" t="s">
         <v>99</v>
@@ -1650,13 +2493,13 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
         <v>102</v>
@@ -1667,16 +2510,16 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -1684,16 +2527,16 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -1701,50 +2544,50 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F54" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F56" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -1752,16 +2595,16 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -1769,16 +2612,16 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F58" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -1786,16 +2629,16 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F59" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -1809,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -1820,16 +2663,16 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F61" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -1837,16 +2680,16 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="F62" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -1854,16 +2697,16 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F63" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -1871,16 +2714,16 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>99</v>
+        <v>139</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -1888,16 +2731,16 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65" t="s">
-        <v>102</v>
+        <v>140</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -1905,16 +2748,16 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>99</v>
+        <v>142</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -1922,16 +2765,16 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>128</v>
-      </c>
-      <c r="F67" t="s">
-        <v>102</v>
+        <v>144</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -1939,16 +2782,16 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -1956,16 +2799,16 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -1973,16 +2816,16 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -1990,18 +2833,2568 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="F71" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>157</v>
+      </c>
+      <c r="F72" t="s">
+        <v>158</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>159</v>
+      </c>
+      <c r="F73" t="s">
+        <v>160</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>161</v>
+      </c>
+      <c r="F74" t="s">
+        <v>162</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>163</v>
+      </c>
+      <c r="F75" t="s">
+        <v>164</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F76" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>167</v>
+      </c>
+      <c r="F77" t="s">
+        <v>168</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
+        <v>111</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" t="s">
+        <v>170</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>173</v>
+      </c>
+      <c r="F80" t="s">
+        <v>174</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>175</v>
+      </c>
+      <c r="F81" t="s">
+        <v>176</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" t="s">
+        <v>179</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" t="s">
+        <v>182</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" t="s">
+        <v>179</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>186</v>
+      </c>
+      <c r="F85" t="s">
+        <v>182</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>188</v>
+      </c>
+      <c r="F86" t="s">
+        <v>189</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>191</v>
+      </c>
+      <c r="F87" t="s">
+        <v>192</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>194</v>
+      </c>
+      <c r="F88" t="s">
+        <v>189</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>196</v>
+      </c>
+      <c r="F89" t="s">
+        <v>192</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>197</v>
+      </c>
+      <c r="F90" t="s">
+        <v>189</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>198</v>
+      </c>
+      <c r="F91" t="s">
+        <v>192</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>199</v>
+      </c>
+      <c r="F92" t="s">
+        <v>200</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>201</v>
+      </c>
+      <c r="F93" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>203</v>
+      </c>
+      <c r="F94" t="s">
+        <v>204</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" t="s">
+        <v>206</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>207</v>
+      </c>
+      <c r="F96" t="s">
+        <v>174</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>208</v>
+      </c>
+      <c r="F97" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>209</v>
+      </c>
+      <c r="F98" t="s">
+        <v>210</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>211</v>
+      </c>
+      <c r="F99" t="s">
+        <v>212</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" t="s">
+        <v>214</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>215</v>
+      </c>
+      <c r="F101" t="s">
+        <v>216</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>217</v>
+      </c>
+      <c r="F102" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>218</v>
+      </c>
+      <c r="F103" t="s">
+        <v>216</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>219</v>
+      </c>
+      <c r="F104" t="s">
+        <v>179</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B105" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>220</v>
+      </c>
+      <c r="F105" t="s">
+        <v>182</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B106" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>221</v>
+      </c>
+      <c r="F106" t="s">
+        <v>222</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B107" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>223</v>
+      </c>
+      <c r="F107" t="s">
+        <v>224</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>226</v>
+      </c>
+      <c r="F108" t="s">
+        <v>210</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>228</v>
+      </c>
+      <c r="F109" t="s">
+        <v>212</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B110" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>230</v>
+      </c>
+      <c r="F110" t="s">
+        <v>222</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>232</v>
+      </c>
+      <c r="F111" t="s">
+        <v>224</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B112" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>234</v>
+      </c>
+      <c r="F112" t="s">
+        <v>174</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B113" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>236</v>
+      </c>
+      <c r="F113" t="s">
+        <v>176</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>237</v>
+      </c>
+      <c r="F114" t="s">
+        <v>238</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B115" t="s">
+        <v>235</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>239</v>
+      </c>
+      <c r="F115" t="s">
+        <v>240</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>241</v>
+      </c>
+      <c r="F116" t="s">
+        <v>242</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>243</v>
+      </c>
+      <c r="F117" t="s">
+        <v>244</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B118" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>245</v>
+      </c>
+      <c r="F118" t="s">
+        <v>238</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>246</v>
+      </c>
+      <c r="F119" t="s">
+        <v>240</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>248</v>
+      </c>
+      <c r="F120" t="s">
+        <v>249</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>251</v>
+      </c>
+      <c r="F121" t="s">
+        <v>252</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B122" t="s">
+        <v>253</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>254</v>
+      </c>
+      <c r="F122" t="s">
+        <v>249</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B123" t="s">
+        <v>255</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>256</v>
+      </c>
+      <c r="F123" t="s">
+        <v>252</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>258</v>
+      </c>
+      <c r="F124" t="s">
+        <v>259</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B125" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>261</v>
+      </c>
+      <c r="F125" t="s">
+        <v>262</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B126" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>264</v>
+      </c>
+      <c r="F126" t="s">
+        <v>265</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B127" t="s">
+        <v>266</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" t="s">
+        <v>268</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B128" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>269</v>
+      </c>
+      <c r="F128" t="s">
+        <v>214</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B129" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>270</v>
+      </c>
+      <c r="F129" t="s">
+        <v>216</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>271</v>
+      </c>
+      <c r="F130" t="s">
+        <v>272</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>273</v>
+      </c>
+      <c r="F131" t="s">
+        <v>274</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>275</v>
+      </c>
+      <c r="F132" t="s">
+        <v>210</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B133" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>276</v>
+      </c>
+      <c r="F133" t="s">
+        <v>212</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B134" t="s">
+        <v>187</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>277</v>
+      </c>
+      <c r="F134" t="s">
+        <v>272</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B135" t="s">
+        <v>190</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>278</v>
+      </c>
+      <c r="F135" t="s">
+        <v>274</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B136" t="s">
+        <v>187</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>279</v>
+      </c>
+      <c r="F136" t="s">
+        <v>222</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B137" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>280</v>
+      </c>
+      <c r="F137" t="s">
+        <v>224</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B138" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>282</v>
+      </c>
+      <c r="F138" t="s">
+        <v>283</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B139" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>285</v>
+      </c>
+      <c r="F139" t="s">
+        <v>286</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B140" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>288</v>
+      </c>
+      <c r="F140" t="s">
+        <v>289</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B141" t="s">
+        <v>290</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>291</v>
+      </c>
+      <c r="F141" t="s">
+        <v>292</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B142" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>293</v>
+      </c>
+      <c r="F142" t="s">
+        <v>283</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>294</v>
+      </c>
+      <c r="F143" t="s">
+        <v>286</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>295</v>
+      </c>
+      <c r="F144" t="s">
+        <v>296</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B145" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>297</v>
+      </c>
+      <c r="F145" t="s">
+        <v>298</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B146" t="s">
+        <v>281</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>299</v>
+      </c>
+      <c r="F146" t="s">
+        <v>300</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B147" t="s">
+        <v>284</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>301</v>
+      </c>
+      <c r="F147" t="s">
+        <v>302</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B148" t="s">
+        <v>281</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>303</v>
+      </c>
+      <c r="F148" t="s">
+        <v>238</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B149" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>304</v>
+      </c>
+      <c r="F149" t="s">
+        <v>240</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B150" t="s">
+        <v>193</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>305</v>
+      </c>
+      <c r="F150" t="s">
+        <v>306</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B151" t="s">
+        <v>195</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>307</v>
+      </c>
+      <c r="F151" t="s">
+        <v>308</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B152" t="s">
+        <v>287</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>309</v>
+      </c>
+      <c r="F152" t="s">
+        <v>283</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B153" t="s">
+        <v>290</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>310</v>
+      </c>
+      <c r="F153" t="s">
+        <v>286</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B154" t="s">
+        <v>193</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>311</v>
+      </c>
+      <c r="F154" t="s">
+        <v>312</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B155" t="s">
+        <v>195</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>313</v>
+      </c>
+      <c r="F155" t="s">
+        <v>314</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B156" t="s">
+        <v>287</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>315</v>
+      </c>
+      <c r="F156" t="s">
+        <v>316</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B157" t="s">
+        <v>290</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>317</v>
+      </c>
+      <c r="F157" t="s">
+        <v>318</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B158" t="s">
+        <v>319</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>320</v>
+      </c>
+      <c r="F158" t="s">
+        <v>312</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B159" t="s">
+        <v>321</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>322</v>
+      </c>
+      <c r="F159" t="s">
+        <v>314</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B160" t="s">
+        <v>323</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>324</v>
+      </c>
+      <c r="F160" t="s">
+        <v>306</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B161" t="s">
+        <v>325</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>326</v>
+      </c>
+      <c r="F161" t="s">
+        <v>308</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B162" t="s">
+        <v>327</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>328</v>
+      </c>
+      <c r="F162" t="s">
+        <v>249</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B163" t="s">
+        <v>329</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>330</v>
+      </c>
+      <c r="F163" t="s">
+        <v>252</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B164" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>331</v>
+      </c>
+      <c r="F164" t="s">
+        <v>332</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B165" t="s">
+        <v>325</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>333</v>
+      </c>
+      <c r="F165" t="s">
+        <v>334</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B166" t="s">
+        <v>327</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>335</v>
+      </c>
+      <c r="F166" t="s">
+        <v>316</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B167" t="s">
+        <v>329</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>336</v>
+      </c>
+      <c r="F167" t="s">
+        <v>318</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B168" t="s">
+        <v>323</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>337</v>
+      </c>
+      <c r="F168" t="s">
+        <v>272</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B169" t="s">
+        <v>325</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>338</v>
+      </c>
+      <c r="F169" t="s">
+        <v>274</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B170" t="s">
+        <v>323</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>339</v>
+      </c>
+      <c r="F170" t="s">
+        <v>340</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B171" t="s">
+        <v>325</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>341</v>
+      </c>
+      <c r="F171" t="s">
+        <v>342</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>344</v>
+      </c>
+      <c r="F172" t="s">
+        <v>345</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B173" t="s">
+        <v>346</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>347</v>
+      </c>
+      <c r="F173" t="s">
+        <v>348</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B174" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>350</v>
+      </c>
+      <c r="F174" t="s">
+        <v>345</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B175" t="s">
+        <v>351</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>352</v>
+      </c>
+      <c r="F175" t="s">
+        <v>348</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B176" t="s">
+        <v>349</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>353</v>
+      </c>
+      <c r="F176" t="s">
+        <v>345</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B177" t="s">
+        <v>351</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>354</v>
+      </c>
+      <c r="F177" t="s">
+        <v>348</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B178" t="s">
+        <v>253</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>355</v>
+      </c>
+      <c r="F178" t="s">
+        <v>345</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B179" t="s">
+        <v>255</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>356</v>
+      </c>
+      <c r="F179" t="s">
+        <v>348</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B180" t="s">
+        <v>349</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>357</v>
+      </c>
+      <c r="F180" t="s">
+        <v>306</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B181" t="s">
+        <v>351</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
+        <v>308</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B182" t="s">
+        <v>253</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>359</v>
+      </c>
+      <c r="F182" t="s">
+        <v>312</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B183" t="s">
+        <v>255</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>360</v>
+      </c>
+      <c r="F183" t="s">
+        <v>314</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B184" t="s">
+        <v>349</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>361</v>
+      </c>
+      <c r="F184" t="s">
+        <v>345</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B185" t="s">
+        <v>351</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>362</v>
+      </c>
+      <c r="F185" t="s">
+        <v>348</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B186" t="s">
+        <v>363</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>364</v>
+      </c>
+      <c r="F186" t="s">
+        <v>345</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B187" t="s">
+        <v>365</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>366</v>
+      </c>
+      <c r="F187" t="s">
+        <v>348</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B188" t="s">
+        <v>257</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>367</v>
+      </c>
+      <c r="F188" t="s">
+        <v>368</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B189" t="s">
+        <v>260</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>369</v>
+      </c>
+      <c r="F189" t="s">
+        <v>370</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B190" t="s">
+        <v>257</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>371</v>
+      </c>
+      <c r="F190" t="s">
+        <v>372</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B191" t="s">
+        <v>260</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>373</v>
+      </c>
+      <c r="F191" t="s">
+        <v>374</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B192" t="s">
+        <v>375</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>376</v>
+      </c>
+      <c r="F192" t="s">
+        <v>368</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B193" t="s">
+        <v>377</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>378</v>
+      </c>
+      <c r="F193" t="s">
+        <v>370</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B194" t="s">
+        <v>379</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>380</v>
+      </c>
+      <c r="F194" t="s">
+        <v>372</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B195" t="s">
+        <v>381</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>382</v>
+      </c>
+      <c r="F195" t="s">
+        <v>374</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B196" t="s">
+        <v>379</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>383</v>
+      </c>
+      <c r="F196" t="s">
+        <v>368</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B197" t="s">
+        <v>381</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>384</v>
+      </c>
+      <c r="F197" t="s">
+        <v>370</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B198" t="s">
+        <v>263</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>385</v>
+      </c>
+      <c r="F198" t="s">
+        <v>372</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B199" t="s">
+        <v>266</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>386</v>
+      </c>
+      <c r="F199" t="s">
+        <v>374</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B200" t="s">
+        <v>379</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>387</v>
+      </c>
+      <c r="F200" t="s">
+        <v>372</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B201" t="s">
+        <v>381</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>388</v>
+      </c>
+      <c r="F201" t="s">
+        <v>374</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B202" t="s">
+        <v>263</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>389</v>
+      </c>
+      <c r="F202" t="s">
+        <v>372</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B203" t="s">
+        <v>266</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>390</v>
+      </c>
+      <c r="F203" t="s">
+        <v>374</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B204" t="s">
+        <v>379</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>391</v>
+      </c>
+      <c r="F204" t="s">
+        <v>372</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B205" t="s">
+        <v>381</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>392</v>
+      </c>
+      <c r="F205" t="s">
+        <v>374</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B206" t="s">
+        <v>393</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>394</v>
+      </c>
+      <c r="F206" t="s">
+        <v>372</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B207" t="s">
+        <v>395</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>396</v>
+      </c>
+      <c r="F207" t="s">
+        <v>374</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B208" t="s">
+        <v>397</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>398</v>
+      </c>
+      <c r="F208" t="s">
+        <v>368</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B209" t="s">
+        <v>399</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>400</v>
+      </c>
+      <c r="F209" t="s">
+        <v>370</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B210" t="s">
+        <v>397</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>401</v>
+      </c>
+      <c r="F210" t="s">
+        <v>368</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B211" t="s">
+        <v>399</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>402</v>
+      </c>
+      <c r="F211" t="s">
+        <v>370</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B212" t="s">
+        <v>327</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>403</v>
+      </c>
+      <c r="F212" t="s">
+        <v>368</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B213" t="s">
+        <v>329</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>404</v>
+      </c>
+      <c r="F213" t="s">
+        <v>370</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B214" t="s">
+        <v>397</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>405</v>
+      </c>
+      <c r="F214" t="s">
+        <v>372</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B215" t="s">
+        <v>399</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>406</v>
+      </c>
+      <c r="F215" t="s">
+        <v>374</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B216" t="s">
+        <v>327</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>407</v>
+      </c>
+      <c r="F216" t="s">
+        <v>368</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B217" t="s">
+        <v>329</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>408</v>
+      </c>
+      <c r="F217" t="s">
+        <v>370</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B218" t="s">
+        <v>397</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>409</v>
+      </c>
+      <c r="F218" t="s">
+        <v>368</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B219" t="s">
+        <v>399</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>410</v>
+      </c>
+      <c r="F219" t="s">
+        <v>370</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B220" t="s">
+        <v>411</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>412</v>
+      </c>
+      <c r="F220" t="s">
+        <v>372</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B221" t="s">
+        <v>413</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>414</v>
+      </c>
+      <c r="F221" t="s">
+        <v>374</v>
+      </c>
+      <c r="G221">
         <v>0</v>
       </c>
     </row>
@@ -2012,18 +5405,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4C0978-5480-40BA-AB01-44CCE0201E98}">
-  <dimension ref="A1:L72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365997C1-F22C-4021-94DA-2F387B37EE2F}">
+  <dimension ref="A1:L222"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:L72"/>
+      <selection activeCell="A6" sqref="A6:L222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -2033,16 +5426,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>416</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>418</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -2053,7 +5446,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>420</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -2082,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>421</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2105,13 +5498,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>422</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2126,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2134,13 +5527,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>423</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2155,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2163,13 +5556,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>424</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2184,29 +5577,41 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
-        <v>18</v>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
         <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2214,10 +5619,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2225,10 +5630,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
         <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2236,10 +5641,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
         <v>26</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2247,10 +5652,10 @@
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
         <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2258,10 +5663,10 @@
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
         <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2269,10 +5674,10 @@
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
         <v>33</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2280,10 +5685,10 @@
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" t="s">
         <v>35</v>
-      </c>
-      <c r="H20" t="s">
-        <v>36</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2291,10 +5696,10 @@
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
         <v>37</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2302,10 +5707,10 @@
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
         <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2313,10 +5718,10 @@
     </row>
     <row r="23" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
         <v>42</v>
-      </c>
-      <c r="H23" t="s">
-        <v>43</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2324,10 +5729,10 @@
     </row>
     <row r="24" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
         <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>45</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2335,10 +5740,10 @@
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2346,10 +5751,10 @@
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2357,10 +5762,10 @@
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2368,10 +5773,10 @@
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28">
-        <v>-201.06</v>
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>53</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2379,10 +5784,10 @@
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2390,10 +5795,10 @@
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2401,10 +5806,10 @@
     </row>
     <row r="31" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2412,10 +5817,10 @@
     </row>
     <row r="32" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2423,10 +5828,10 @@
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2434,10 +5839,10 @@
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2445,10 +5850,10 @@
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2456,10 +5861,10 @@
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2467,10 +5872,10 @@
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37">
-        <v>-17.899999999999999</v>
+        <v>76</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2478,21 +5883,21 @@
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2500,10 +5905,10 @@
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2511,10 +5916,10 @@
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2522,10 +5927,10 @@
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G42" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42">
-        <v>-6.52</v>
+        <v>87</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2533,21 +5938,21 @@
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2555,10 +5960,10 @@
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G45" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="H45" t="s">
+        <v>94</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2566,10 +5971,10 @@
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H46" t="s">
         <v>96</v>
-      </c>
-      <c r="H46">
-        <v>-0.04</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2621,7 +6026,7 @@
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H51" t="s">
         <v>99</v>
@@ -2632,7 +6037,7 @@
     </row>
     <row r="52" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H52" t="s">
         <v>102</v>
@@ -2643,10 +6048,10 @@
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G53" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H53" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2654,10 +6059,10 @@
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G54" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H54" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2665,32 +6070,32 @@
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G55" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H55" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G56" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H56" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G57" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="H57" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2698,10 +6103,10 @@
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G58" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H58" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2709,10 +6114,10 @@
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G59" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H59" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2720,10 +6125,10 @@
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G60" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H60" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2731,10 +6136,10 @@
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G61" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="H61" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2742,10 +6147,10 @@
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G62" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="H62" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2753,10 +6158,10 @@
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G63" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H63" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2764,10 +6169,10 @@
     </row>
     <row r="64" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G64" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H64" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2775,10 +6180,10 @@
     </row>
     <row r="65" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G65" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" t="s">
-        <v>99</v>
+        <v>139</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2786,10 +6191,10 @@
     </row>
     <row r="66" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G66" t="s">
-        <v>126</v>
-      </c>
-      <c r="H66" t="s">
-        <v>102</v>
+        <v>140</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2797,10 +6202,10 @@
     </row>
     <row r="67" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G67" t="s">
-        <v>127</v>
-      </c>
-      <c r="H67" t="s">
-        <v>99</v>
+        <v>142</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2808,10 +6213,10 @@
     </row>
     <row r="68" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G68" t="s">
-        <v>128</v>
-      </c>
-      <c r="H68" t="s">
-        <v>102</v>
+        <v>144</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2819,10 +6224,10 @@
     </row>
     <row r="69" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G69" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2830,10 +6235,10 @@
     </row>
     <row r="70" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G70" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H70" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2841,10 +6246,10 @@
     </row>
     <row r="71" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G71" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2852,12 +6257,1662 @@
     </row>
     <row r="72" spans="7:9" x14ac:dyDescent="0.4">
       <c r="G72" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G73" t="s">
+        <v>157</v>
+      </c>
+      <c r="H73" t="s">
+        <v>158</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G74" t="s">
+        <v>159</v>
+      </c>
+      <c r="H74" t="s">
+        <v>160</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G75" t="s">
+        <v>161</v>
+      </c>
+      <c r="H75" t="s">
+        <v>162</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G76" t="s">
+        <v>163</v>
+      </c>
+      <c r="H76" t="s">
+        <v>164</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G77" t="s">
+        <v>165</v>
+      </c>
+      <c r="H77" t="s">
+        <v>166</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G78" t="s">
+        <v>167</v>
+      </c>
+      <c r="H78" t="s">
+        <v>168</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G79" t="s">
+        <v>169</v>
+      </c>
+      <c r="H79" t="s">
+        <v>170</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G80" t="s">
+        <v>171</v>
+      </c>
+      <c r="H80" t="s">
+        <v>172</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G81" t="s">
+        <v>173</v>
+      </c>
+      <c r="H81" t="s">
+        <v>174</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G82" t="s">
+        <v>175</v>
+      </c>
+      <c r="H82" t="s">
+        <v>176</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G83" t="s">
+        <v>178</v>
+      </c>
+      <c r="H83" t="s">
+        <v>179</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G84" t="s">
+        <v>181</v>
+      </c>
+      <c r="H84" t="s">
+        <v>182</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G85" t="s">
+        <v>184</v>
+      </c>
+      <c r="H85" t="s">
+        <v>179</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G86" t="s">
+        <v>186</v>
+      </c>
+      <c r="H86" t="s">
+        <v>182</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G87" t="s">
+        <v>188</v>
+      </c>
+      <c r="H87" t="s">
+        <v>189</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G88" t="s">
+        <v>191</v>
+      </c>
+      <c r="H88" t="s">
+        <v>192</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G89" t="s">
+        <v>194</v>
+      </c>
+      <c r="H89" t="s">
+        <v>189</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G90" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90" t="s">
+        <v>192</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G91" t="s">
+        <v>197</v>
+      </c>
+      <c r="H91" t="s">
+        <v>189</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G92" t="s">
+        <v>198</v>
+      </c>
+      <c r="H92" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G93" t="s">
+        <v>199</v>
+      </c>
+      <c r="H93" t="s">
+        <v>200</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G94" t="s">
+        <v>201</v>
+      </c>
+      <c r="H94" t="s">
+        <v>202</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G95" t="s">
+        <v>203</v>
+      </c>
+      <c r="H95" t="s">
+        <v>204</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G96" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" t="s">
+        <v>206</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G97" t="s">
+        <v>207</v>
+      </c>
+      <c r="H97" t="s">
+        <v>174</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G98" t="s">
+        <v>208</v>
+      </c>
+      <c r="H98" t="s">
+        <v>176</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G99" t="s">
+        <v>209</v>
+      </c>
+      <c r="H99" t="s">
+        <v>210</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G100" t="s">
+        <v>211</v>
+      </c>
+      <c r="H100" t="s">
+        <v>212</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G101" t="s">
+        <v>213</v>
+      </c>
+      <c r="H101" t="s">
+        <v>214</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G102" t="s">
+        <v>215</v>
+      </c>
+      <c r="H102" t="s">
+        <v>216</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G103" t="s">
+        <v>217</v>
+      </c>
+      <c r="H103" t="s">
+        <v>214</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G104" t="s">
+        <v>218</v>
+      </c>
+      <c r="H104" t="s">
+        <v>216</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G105" t="s">
+        <v>219</v>
+      </c>
+      <c r="H105" t="s">
+        <v>179</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G106" t="s">
+        <v>220</v>
+      </c>
+      <c r="H106" t="s">
+        <v>182</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G107" t="s">
+        <v>221</v>
+      </c>
+      <c r="H107" t="s">
+        <v>222</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H108" t="s">
+        <v>224</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G109" t="s">
+        <v>226</v>
+      </c>
+      <c r="H109" t="s">
+        <v>210</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G110" t="s">
+        <v>228</v>
+      </c>
+      <c r="H110" t="s">
+        <v>212</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G111" t="s">
+        <v>230</v>
+      </c>
+      <c r="H111" t="s">
+        <v>222</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G112" t="s">
+        <v>232</v>
+      </c>
+      <c r="H112" t="s">
+        <v>224</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G113" t="s">
+        <v>234</v>
+      </c>
+      <c r="H113" t="s">
+        <v>174</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G114" t="s">
+        <v>236</v>
+      </c>
+      <c r="H114" t="s">
+        <v>176</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G115" t="s">
+        <v>237</v>
+      </c>
+      <c r="H115" t="s">
+        <v>238</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G116" t="s">
+        <v>239</v>
+      </c>
+      <c r="H116" t="s">
+        <v>240</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G117" t="s">
+        <v>241</v>
+      </c>
+      <c r="H117" t="s">
+        <v>242</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G118" t="s">
+        <v>243</v>
+      </c>
+      <c r="H118" t="s">
+        <v>244</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G119" t="s">
+        <v>245</v>
+      </c>
+      <c r="H119" t="s">
+        <v>238</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G120" t="s">
+        <v>246</v>
+      </c>
+      <c r="H120" t="s">
+        <v>240</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G121" t="s">
+        <v>248</v>
+      </c>
+      <c r="H121" t="s">
+        <v>249</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G122" t="s">
+        <v>251</v>
+      </c>
+      <c r="H122" t="s">
+        <v>252</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G123" t="s">
+        <v>254</v>
+      </c>
+      <c r="H123" t="s">
+        <v>249</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G124" t="s">
+        <v>256</v>
+      </c>
+      <c r="H124" t="s">
+        <v>252</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G125" t="s">
+        <v>258</v>
+      </c>
+      <c r="H125" t="s">
+        <v>259</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G126" t="s">
+        <v>261</v>
+      </c>
+      <c r="H126" t="s">
+        <v>262</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G127" t="s">
+        <v>264</v>
+      </c>
+      <c r="H127" t="s">
+        <v>265</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G128" t="s">
+        <v>267</v>
+      </c>
+      <c r="H128" t="s">
+        <v>268</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G129" t="s">
+        <v>269</v>
+      </c>
+      <c r="H129" t="s">
+        <v>214</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G130" t="s">
+        <v>270</v>
+      </c>
+      <c r="H130" t="s">
+        <v>216</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G131" t="s">
+        <v>271</v>
+      </c>
+      <c r="H131" t="s">
+        <v>272</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G132" t="s">
+        <v>273</v>
+      </c>
+      <c r="H132" t="s">
+        <v>274</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G133" t="s">
+        <v>275</v>
+      </c>
+      <c r="H133" t="s">
+        <v>210</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G134" t="s">
+        <v>276</v>
+      </c>
+      <c r="H134" t="s">
+        <v>212</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G135" t="s">
+        <v>277</v>
+      </c>
+      <c r="H135" t="s">
+        <v>272</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G136" t="s">
+        <v>278</v>
+      </c>
+      <c r="H136" t="s">
+        <v>274</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G137" t="s">
+        <v>279</v>
+      </c>
+      <c r="H137" t="s">
+        <v>222</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G138" t="s">
+        <v>280</v>
+      </c>
+      <c r="H138" t="s">
+        <v>224</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G139" t="s">
+        <v>282</v>
+      </c>
+      <c r="H139" t="s">
+        <v>283</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G140" t="s">
+        <v>285</v>
+      </c>
+      <c r="H140" t="s">
+        <v>286</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G141" t="s">
+        <v>288</v>
+      </c>
+      <c r="H141" t="s">
+        <v>289</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G142" t="s">
+        <v>291</v>
+      </c>
+      <c r="H142" t="s">
+        <v>292</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G143" t="s">
+        <v>293</v>
+      </c>
+      <c r="H143" t="s">
+        <v>283</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G144" t="s">
+        <v>294</v>
+      </c>
+      <c r="H144" t="s">
+        <v>286</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G145" t="s">
+        <v>295</v>
+      </c>
+      <c r="H145" t="s">
+        <v>296</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G146" t="s">
+        <v>297</v>
+      </c>
+      <c r="H146" t="s">
+        <v>298</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G147" t="s">
+        <v>299</v>
+      </c>
+      <c r="H147" t="s">
+        <v>300</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G148" t="s">
+        <v>301</v>
+      </c>
+      <c r="H148" t="s">
+        <v>302</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G149" t="s">
+        <v>303</v>
+      </c>
+      <c r="H149" t="s">
+        <v>238</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G150" t="s">
+        <v>304</v>
+      </c>
+      <c r="H150" t="s">
+        <v>240</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G151" t="s">
+        <v>305</v>
+      </c>
+      <c r="H151" t="s">
+        <v>306</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G152" t="s">
+        <v>307</v>
+      </c>
+      <c r="H152" t="s">
+        <v>308</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G153" t="s">
+        <v>309</v>
+      </c>
+      <c r="H153" t="s">
+        <v>283</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G154" t="s">
+        <v>310</v>
+      </c>
+      <c r="H154" t="s">
+        <v>286</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G155" t="s">
+        <v>311</v>
+      </c>
+      <c r="H155" t="s">
+        <v>312</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G156" t="s">
+        <v>313</v>
+      </c>
+      <c r="H156" t="s">
+        <v>314</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G157" t="s">
+        <v>315</v>
+      </c>
+      <c r="H157" t="s">
+        <v>316</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G158" t="s">
+        <v>317</v>
+      </c>
+      <c r="H158" t="s">
+        <v>318</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G159" t="s">
+        <v>320</v>
+      </c>
+      <c r="H159" t="s">
+        <v>312</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G160" t="s">
+        <v>322</v>
+      </c>
+      <c r="H160" t="s">
+        <v>314</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G161" t="s">
+        <v>324</v>
+      </c>
+      <c r="H161" t="s">
+        <v>306</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G162" t="s">
+        <v>326</v>
+      </c>
+      <c r="H162" t="s">
+        <v>308</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G163" t="s">
+        <v>328</v>
+      </c>
+      <c r="H163" t="s">
+        <v>249</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G164" t="s">
+        <v>330</v>
+      </c>
+      <c r="H164" t="s">
+        <v>252</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G165" t="s">
+        <v>331</v>
+      </c>
+      <c r="H165" t="s">
+        <v>332</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G166" t="s">
+        <v>333</v>
+      </c>
+      <c r="H166" t="s">
+        <v>334</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G167" t="s">
+        <v>335</v>
+      </c>
+      <c r="H167" t="s">
+        <v>316</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G168" t="s">
+        <v>336</v>
+      </c>
+      <c r="H168" t="s">
+        <v>318</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G169" t="s">
+        <v>337</v>
+      </c>
+      <c r="H169" t="s">
+        <v>272</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G170" t="s">
+        <v>338</v>
+      </c>
+      <c r="H170" t="s">
+        <v>274</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G171" t="s">
+        <v>339</v>
+      </c>
+      <c r="H171" t="s">
+        <v>340</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G172" t="s">
+        <v>341</v>
+      </c>
+      <c r="H172" t="s">
+        <v>342</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G173" t="s">
+        <v>344</v>
+      </c>
+      <c r="H173" t="s">
+        <v>345</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G174" t="s">
+        <v>347</v>
+      </c>
+      <c r="H174" t="s">
+        <v>348</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G175" t="s">
+        <v>350</v>
+      </c>
+      <c r="H175" t="s">
+        <v>345</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G176" t="s">
+        <v>352</v>
+      </c>
+      <c r="H176" t="s">
+        <v>348</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G177" t="s">
+        <v>353</v>
+      </c>
+      <c r="H177" t="s">
+        <v>345</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G178" t="s">
+        <v>354</v>
+      </c>
+      <c r="H178" t="s">
+        <v>348</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G179" t="s">
+        <v>355</v>
+      </c>
+      <c r="H179" t="s">
+        <v>345</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G180" t="s">
+        <v>356</v>
+      </c>
+      <c r="H180" t="s">
+        <v>348</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G181" t="s">
+        <v>357</v>
+      </c>
+      <c r="H181" t="s">
+        <v>306</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G182" t="s">
+        <v>358</v>
+      </c>
+      <c r="H182" t="s">
+        <v>308</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G183" t="s">
+        <v>359</v>
+      </c>
+      <c r="H183" t="s">
+        <v>312</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G184" t="s">
+        <v>360</v>
+      </c>
+      <c r="H184" t="s">
+        <v>314</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G185" t="s">
+        <v>361</v>
+      </c>
+      <c r="H185" t="s">
+        <v>345</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G186" t="s">
+        <v>362</v>
+      </c>
+      <c r="H186" t="s">
+        <v>348</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G187" t="s">
+        <v>364</v>
+      </c>
+      <c r="H187" t="s">
+        <v>345</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G188" t="s">
+        <v>366</v>
+      </c>
+      <c r="H188" t="s">
+        <v>348</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G189" t="s">
+        <v>367</v>
+      </c>
+      <c r="H189" t="s">
+        <v>368</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G190" t="s">
+        <v>369</v>
+      </c>
+      <c r="H190" t="s">
+        <v>370</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G191" t="s">
+        <v>371</v>
+      </c>
+      <c r="H191" t="s">
+        <v>372</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G192" t="s">
+        <v>373</v>
+      </c>
+      <c r="H192" t="s">
+        <v>374</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G193" t="s">
+        <v>376</v>
+      </c>
+      <c r="H193" t="s">
+        <v>368</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G194" t="s">
+        <v>378</v>
+      </c>
+      <c r="H194" t="s">
+        <v>370</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G195" t="s">
+        <v>380</v>
+      </c>
+      <c r="H195" t="s">
+        <v>372</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G196" t="s">
+        <v>382</v>
+      </c>
+      <c r="H196" t="s">
+        <v>374</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G197" t="s">
+        <v>383</v>
+      </c>
+      <c r="H197" t="s">
+        <v>368</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G198" t="s">
+        <v>384</v>
+      </c>
+      <c r="H198" t="s">
+        <v>370</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G199" t="s">
+        <v>385</v>
+      </c>
+      <c r="H199" t="s">
+        <v>372</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G200" t="s">
+        <v>386</v>
+      </c>
+      <c r="H200" t="s">
+        <v>374</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G201" t="s">
+        <v>387</v>
+      </c>
+      <c r="H201" t="s">
+        <v>372</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G202" t="s">
+        <v>388</v>
+      </c>
+      <c r="H202" t="s">
+        <v>374</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G203" t="s">
+        <v>389</v>
+      </c>
+      <c r="H203" t="s">
+        <v>372</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G204" t="s">
+        <v>390</v>
+      </c>
+      <c r="H204" t="s">
+        <v>374</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G205" t="s">
+        <v>391</v>
+      </c>
+      <c r="H205" t="s">
+        <v>372</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G206" t="s">
+        <v>392</v>
+      </c>
+      <c r="H206" t="s">
+        <v>374</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G207" t="s">
+        <v>394</v>
+      </c>
+      <c r="H207" t="s">
+        <v>372</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G208" t="s">
+        <v>396</v>
+      </c>
+      <c r="H208" t="s">
+        <v>374</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G209" t="s">
+        <v>398</v>
+      </c>
+      <c r="H209" t="s">
+        <v>368</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G210" t="s">
+        <v>400</v>
+      </c>
+      <c r="H210" t="s">
+        <v>370</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G211" t="s">
+        <v>401</v>
+      </c>
+      <c r="H211" t="s">
+        <v>368</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G212" t="s">
+        <v>402</v>
+      </c>
+      <c r="H212" t="s">
+        <v>370</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G213" t="s">
+        <v>403</v>
+      </c>
+      <c r="H213" t="s">
+        <v>368</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G214" t="s">
+        <v>404</v>
+      </c>
+      <c r="H214" t="s">
+        <v>370</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G215" t="s">
+        <v>405</v>
+      </c>
+      <c r="H215" t="s">
+        <v>372</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G216" t="s">
+        <v>406</v>
+      </c>
+      <c r="H216" t="s">
+        <v>374</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G217" t="s">
+        <v>407</v>
+      </c>
+      <c r="H217" t="s">
+        <v>368</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G218" t="s">
+        <v>408</v>
+      </c>
+      <c r="H218" t="s">
+        <v>370</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G219" t="s">
+        <v>409</v>
+      </c>
+      <c r="H219" t="s">
+        <v>368</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G220" t="s">
+        <v>410</v>
+      </c>
+      <c r="H220" t="s">
+        <v>370</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G221" t="s">
+        <v>412</v>
+      </c>
+      <c r="H221" t="s">
+        <v>372</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="G222" t="s">
+        <v>414</v>
+      </c>
+      <c r="H222" t="s">
+        <v>374</v>
+      </c>
+      <c r="I222">
         <v>0</v>
       </c>
     </row>
@@ -2868,7 +7923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7856D62-43A9-4197-94A9-8FAD2F59E807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC80E20-07A2-4B4A-ACEA-7837892E37E5}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2879,7 +7934,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -2889,7 +7944,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2897,7 +7952,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>427</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2905,7 +7960,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>428</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2913,7 +7968,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>429</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2921,7 +7976,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="B10">
         <v>1</v>

--- a/Examples/paper_participation/ModalConfig.xlsx
+++ b/Examples/paper_participation/ModalConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_participation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE593EE0-EE71-46C5-8FED-4102BE605D24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A62971-F2A4-48E9-BE5E-5B9A63E0417F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1013" yWindow="2737" windowWidth="3600" windowHeight="1846" firstSheet="2" activeTab="2" xr2:uid="{2B771158-C5EF-47E5-B0CD-8BA481E90AC5}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="14400" windowHeight="7373" activeTab="2" xr2:uid="{2B771158-C5EF-47E5-B0CD-8BA481E90AC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="123" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="124" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="125" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="153" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="154" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="155" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -846,10 +846,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0AE263-6FF9-4DF3-9331-B7B99B1D3A68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEDC8BC-B3AA-4371-8DB6-A9E222E4B66C}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:G71"/>
     </sheetView>
   </sheetViews>
@@ -2012,10 +2012,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57640E6F-629C-4EC9-985A-10B26D0F8704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E347486E-C014-486D-BE9E-7D3A24CE6664}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:L72"/>
     </sheetView>
   </sheetViews>
@@ -2868,7 +2868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4BFC17-6186-4735-B951-BCF44AFB2BBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31874CAB-00F7-4CF2-AFB4-95FF473F5D7E}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Examples/paper_participation/ModalConfig.xlsx
+++ b/Examples/paper_participation/ModalConfig.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\paper_participation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\Paper_Participation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A62971-F2A4-48E9-BE5E-5B9A63E0417F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4848430D-5BB6-492E-AC2A-49937EAC0A70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="14400" windowHeight="7373" activeTab="2" xr2:uid="{2B771158-C5EF-47E5-B0CD-8BA481E90AC5}"/>
+    <workbookView xWindow="2175" yWindow="2175" windowWidth="14400" windowHeight="7373" activeTab="2" xr2:uid="{C2FE4C2C-54F9-4AB7-9A4C-BB0ED48D2BC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="153" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="154" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="155" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="6" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="7" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -501,12 +501,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -529,10 +530,14 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEDC8BC-B3AA-4371-8DB6-A9E222E4B66C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1481E4C-91A3-4EB9-A874-6279154B5FB5}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2012,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E347486E-C014-486D-BE9E-7D3A24CE6664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AEB383-373F-4346-B945-9B6B01CD98B4}">
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2868,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31874CAB-00F7-4CF2-AFB4-95FF473F5D7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0025C0F3-5A69-46A9-B9B3-30EA5BA0AF5B}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
